--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -1753,10 +1753,6 @@
     <t>http://i.imgur.com/DAnUsTS.png</t>
   </si>
   <si>
-    <t>Iconurl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2395,6 +2391,10 @@
   </si>
   <si>
     <t>http://i.imgur.com/7jq2VMs.png</t>
+  </si>
+  <si>
+    <t>Icon_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="L247" sqref="L247"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2789,10 +2789,10 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
+        <v>774</v>
+      </c>
+      <c r="M1" t="s">
         <v>562</v>
-      </c>
-      <c r="M1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -5740,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5828,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6092,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6180,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6268,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -6400,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -6488,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -6532,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -6576,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -6796,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -6884,7 +6884,7 @@
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -6972,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7104,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7148,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7192,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7236,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7324,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7412,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7544,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7588,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7632,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7676,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7720,7 +7720,7 @@
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7764,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7852,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7896,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7940,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7984,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -8072,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -8116,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -8160,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -8204,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -8248,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8292,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8336,7 +8336,7 @@
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -8424,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="L132" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -8688,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -8732,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -8776,7 +8776,7 @@
         <v>1</v>
       </c>
       <c r="L137" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -8864,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -8908,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="L140" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -8952,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="L141" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -8996,7 +8996,7 @@
         <v>1</v>
       </c>
       <c r="L142" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -9040,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="L143" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -9084,7 +9084,7 @@
         <v>1</v>
       </c>
       <c r="L144" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -9128,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="L146" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -9216,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="L147" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -9260,7 +9260,7 @@
         <v>1</v>
       </c>
       <c r="L148" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="L149" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -9348,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="L150" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -9392,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="L151" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -9436,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="L152" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -9480,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="L153" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -9524,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="L154" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -9568,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="L155" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -9612,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="L156" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -9656,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="L157" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="L158" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -9744,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="L159" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -9788,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="L160" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="L161" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -9876,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="L162" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="L163" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -9964,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="L164" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -10008,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="L165" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="L166" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -10096,7 +10096,7 @@
         <v>1</v>
       </c>
       <c r="L167" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -10140,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="L168" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -10184,7 +10184,7 @@
         <v>1</v>
       </c>
       <c r="L169" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="L170" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -10272,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="L171" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -10316,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="L172" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -10360,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="L173" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -10404,7 +10404,7 @@
         <v>1</v>
       </c>
       <c r="L174" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="L175" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -10492,7 +10492,7 @@
         <v>1</v>
       </c>
       <c r="L176" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -10536,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="L177" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -10580,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="L178" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -10624,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="L179" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -10668,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="L180" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -10712,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="L181" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -10756,7 +10756,7 @@
         <v>1</v>
       </c>
       <c r="L182" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -10800,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="L183" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -10844,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="L184" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -10888,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="L185" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -10932,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="L186" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -10976,7 +10976,7 @@
         <v>1</v>
       </c>
       <c r="L187" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -11020,7 +11020,7 @@
         <v>1</v>
       </c>
       <c r="L188" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -11064,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="L189" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -11108,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="L190" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -11152,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="L191" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -11196,7 +11196,7 @@
         <v>1</v>
       </c>
       <c r="L192" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="L193" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -11284,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="L194" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -11328,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="L195" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -11372,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="L196" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -11416,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="L197" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -11460,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="L198" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="L199" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="L200" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -11592,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="L201" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -11636,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="L202" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -11680,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="L203" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -11724,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="L204" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -11759,7 +11759,7 @@
         <v/>
       </c>
       <c r="I205" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J205">
         <v>620</v>
@@ -11768,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="L205" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -11812,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="L206" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -11856,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="L207" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="L208" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
@@ -11944,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="L209" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
@@ -11988,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="L210" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="L211" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
@@ -12076,7 +12076,7 @@
         <v>1</v>
       </c>
       <c r="L212" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
@@ -12120,7 +12120,7 @@
         <v>1</v>
       </c>
       <c r="L213" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
@@ -12164,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="L214" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
@@ -12208,7 +12208,7 @@
         <v>1</v>
       </c>
       <c r="L215" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="L216" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
@@ -12296,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="L217" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
@@ -12340,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="L218" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
@@ -12384,7 +12384,7 @@
         <v>1</v>
       </c>
       <c r="L219" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
@@ -12428,7 +12428,7 @@
         <v>1</v>
       </c>
       <c r="L220" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
@@ -12472,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="L221" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
@@ -12516,7 +12516,7 @@
         <v>1</v>
       </c>
       <c r="L222" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
@@ -12560,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="L223" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
@@ -12604,7 +12604,7 @@
         <v>1</v>
       </c>
       <c r="L224" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
@@ -12648,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="L225" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
@@ -12692,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="L226" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
@@ -12736,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="L227" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
@@ -12780,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="L228" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
@@ -12824,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="L229" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
@@ -12868,7 +12868,7 @@
         <v>1</v>
       </c>
       <c r="L230" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
@@ -12912,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="L231" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="L232" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
@@ -13000,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="L233" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="L234" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
@@ -13088,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="L235" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
@@ -13132,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="L236" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
@@ -13176,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="L237" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
@@ -13220,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="L238" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
       <c r="L239" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
@@ -13308,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="L240" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
@@ -13352,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="L241" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
@@ -13396,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="L242" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
@@ -13440,7 +13440,7 @@
         <v>1</v>
       </c>
       <c r="L243" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
@@ -13484,7 +13484,7 @@
         <v>1</v>
       </c>
       <c r="L244" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
@@ -13528,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="L245" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
@@ -13572,7 +13572,7 @@
         <v>1</v>
       </c>
       <c r="L246" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
@@ -13616,7 +13616,7 @@
         <v>1</v>
       </c>
       <c r="L247" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
@@ -13660,7 +13660,7 @@
         <v>1</v>
       </c>
       <c r="L248" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
@@ -13704,7 +13704,7 @@
         <v>1</v>
       </c>
       <c r="L249" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
@@ -13748,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="L250" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="L251" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
@@ -13836,7 +13836,7 @@
         <v>1</v>
       </c>
       <c r="L252" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
@@ -13880,7 +13880,7 @@
         <v>1</v>
       </c>
       <c r="L253" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
@@ -13924,7 +13924,7 @@
         <v>1</v>
       </c>
       <c r="L254" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
@@ -13968,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="L255" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
@@ -14012,7 +14012,7 @@
         <v>1</v>
       </c>
       <c r="L256" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
@@ -14056,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="L257" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
@@ -14100,7 +14100,7 @@
         <v>1</v>
       </c>
       <c r="L258" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
@@ -14144,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="L259" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
@@ -14188,7 +14188,7 @@
         <v>1</v>
       </c>
       <c r="L260" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
@@ -14232,7 +14232,7 @@
         <v>1</v>
       </c>
       <c r="L261" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
@@ -14240,7 +14240,7 @@
         <v>321</v>
       </c>
       <c r="B262" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C262" t="str">
         <f>IF(ISNA(VLOOKUP($A262,KT!$A:$B,2,FALSE)),"",VLOOKUP($A262,KT!$A:$B,2,FALSE))</f>
@@ -14251,7 +14251,7 @@
         <v/>
       </c>
       <c r="E262" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F262">
         <f>IF(ISNA(VLOOKUP($A262,LG!$A:$C,3,FALSE)),"",VLOOKUP($A262,LG!$A:$C,3,FALSE))</f>
@@ -14275,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="L262" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
@@ -14319,7 +14319,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
@@ -14407,7 +14407,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
@@ -14495,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -14847,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -14891,7 +14891,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -14935,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -14979,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -15023,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -15067,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -15155,7 +15155,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -15199,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -15243,7 +15243,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -15287,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -15375,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -15419,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -15463,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
@@ -15507,7 +15507,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
@@ -15551,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -15639,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
@@ -15727,7 +15727,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
@@ -15771,7 +15771,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -15815,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
@@ -15947,7 +15947,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
@@ -15991,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
@@ -16035,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
@@ -16167,7 +16167,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
@@ -16299,7 +16299,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
@@ -16343,7 +16343,7 @@
         <v>1</v>
       </c>
       <c r="L309" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="L310" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
@@ -16431,7 +16431,7 @@
         <v>1</v>
       </c>
       <c r="L311" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -16475,7 +16475,7 @@
         <v>1</v>
       </c>
       <c r="L312" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
@@ -16519,7 +16519,7 @@
         <v>1</v>
       </c>
       <c r="L313" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -21,8 +21,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KT!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LG!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SK!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Source!$A$1:$K$313</definedName>
-    <definedName name="EPGTable">Source!$A:$K</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Source!$A$1:$L$313</definedName>
+    <definedName name="EPGTable">Source!$A:$L</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="774">
   <si>
     <t>KTCh</t>
   </si>
@@ -1751,10 +1751,6 @@
   </si>
   <si>
     <t>http://i.imgur.com/DAnUsTS.png</t>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://i.imgur.com/WPF3G5V.png</t>
@@ -2738,10 +2734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M313"/>
+  <dimension ref="A1:L313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="C319" workbookViewId="0">
+      <selection sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2749,12 +2745,12 @@
     <col min="2" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="8" width="24.625" customWidth="1"/>
-    <col min="9" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="30.75" customWidth="1"/>
+    <col min="9" max="9" width="30.75" customWidth="1"/>
+    <col min="10" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>492</v>
       </c>
@@ -2780,22 +2776,19 @@
         <v>495</v>
       </c>
       <c r="I1" t="s">
+        <v>773</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>774</v>
-      </c>
-      <c r="M1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2827,19 +2820,19 @@
         <v>220</v>
       </c>
       <c r="I2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>285</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2871,19 +2864,19 @@
         <v>179</v>
       </c>
       <c r="I3" t="s">
+        <v>497</v>
+      </c>
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>191</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2915,19 +2908,19 @@
         <v/>
       </c>
       <c r="I4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>182</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2959,19 +2952,19 @@
         <v>173</v>
       </c>
       <c r="I5" t="s">
+        <v>499</v>
+      </c>
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>371</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3003,19 +2996,19 @@
         <v>174</v>
       </c>
       <c r="I6" t="s">
+        <v>500</v>
+      </c>
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>379</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3047,19 +3040,19 @@
         <v>234</v>
       </c>
       <c r="I7" t="s">
+        <v>501</v>
+      </c>
+      <c r="J7" t="s">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>421</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3091,19 +3084,19 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
+        <v>502</v>
+      </c>
+      <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>655</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3135,19 +3128,19 @@
         <v>106</v>
       </c>
       <c r="I9" t="s">
+        <v>503</v>
+      </c>
+      <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>177</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3179,19 +3172,19 @@
         <v/>
       </c>
       <c r="I10" t="s">
+        <v>504</v>
+      </c>
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>815391</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3223,19 +3216,19 @@
         <v>102</v>
       </c>
       <c r="I11" t="s">
+        <v>526</v>
+      </c>
+      <c r="J11" t="s">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>195</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3267,19 +3260,19 @@
         <v/>
       </c>
       <c r="I12" t="s">
+        <v>505</v>
+      </c>
+      <c r="J12" t="s">
         <v>9</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>529</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3311,19 +3304,19 @@
         <v>195</v>
       </c>
       <c r="I13" t="s">
+        <v>506</v>
+      </c>
+      <c r="J13" t="s">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>785</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -3355,19 +3348,19 @@
         <v>265</v>
       </c>
       <c r="I14" t="s">
+        <v>507</v>
+      </c>
+      <c r="J14" t="s">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>472</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -3399,19 +3392,19 @@
         <v>160</v>
       </c>
       <c r="I15" t="s">
+        <v>508</v>
+      </c>
+      <c r="J15" t="s">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>778</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -3443,16 +3436,16 @@
         <v>306</v>
       </c>
       <c r="I16" t="s">
+        <v>512</v>
+      </c>
+      <c r="J16" t="s">
         <v>4</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>722</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>512</v>
+      <c r="L16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3487,16 +3480,16 @@
         <v>130</v>
       </c>
       <c r="I17" t="s">
+        <v>509</v>
+      </c>
+      <c r="J17" t="s">
         <v>4</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>122</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>509</v>
+      <c r="L17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3530,17 +3523,17 @@
         <f>IF(ISNA(VLOOKUP($A18,SK!$A:$C,3,FALSE)),"",VLOOKUP($A18,SK!$A:$C,3,FALSE))</f>
         <v>162</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J18" t="s">
         <v>4</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>775</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>510</v>
+      <c r="L18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3575,16 +3568,16 @@
         <v/>
       </c>
       <c r="I19" t="s">
+        <v>511</v>
+      </c>
+      <c r="J19" t="s">
         <v>16</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>815528</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>511</v>
+      <c r="L19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3619,16 +3612,16 @@
         <v>305</v>
       </c>
       <c r="I20" t="s">
+        <v>513</v>
+      </c>
+      <c r="J20" t="s">
         <v>4</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>726</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>513</v>
+      <c r="L20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3663,16 +3656,16 @@
         <v>304</v>
       </c>
       <c r="I21" t="s">
+        <v>514</v>
+      </c>
+      <c r="J21" t="s">
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>721</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>514</v>
+      <c r="L21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3707,16 +3700,16 @@
         <v>86</v>
       </c>
       <c r="I22" t="s">
+        <v>515</v>
+      </c>
+      <c r="J22" t="s">
         <v>4</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>631</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>515</v>
+      <c r="L22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3751,16 +3744,16 @@
         <v/>
       </c>
       <c r="I23" t="s">
+        <v>516</v>
+      </c>
+      <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>814991</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>516</v>
+      <c r="L23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3795,16 +3788,16 @@
         <v>300</v>
       </c>
       <c r="I24" t="s">
+        <v>517</v>
+      </c>
+      <c r="J24" t="s">
         <v>4</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>727</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>517</v>
+      <c r="L24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3839,16 +3832,16 @@
         <v>277</v>
       </c>
       <c r="I25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J25" t="s">
         <v>4</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>779</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>518</v>
+      <c r="L25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3883,16 +3876,16 @@
         <v>302</v>
       </c>
       <c r="I26" t="s">
+        <v>519</v>
+      </c>
+      <c r="J26" t="s">
         <v>4</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>723</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>519</v>
+      <c r="L26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3927,16 +3920,16 @@
         <v/>
       </c>
       <c r="I27" t="s">
+        <v>520</v>
+      </c>
+      <c r="J27" t="s">
         <v>34</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>463</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>520</v>
+      <c r="L27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3971,16 +3964,16 @@
         <v>103</v>
       </c>
       <c r="I28" t="s">
+        <v>521</v>
+      </c>
+      <c r="J28" t="s">
         <v>4</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>197</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>521</v>
+      <c r="L28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -4015,16 +4008,16 @@
         <v>163</v>
       </c>
       <c r="I29" t="s">
+        <v>522</v>
+      </c>
+      <c r="J29" t="s">
         <v>4</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>777</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>522</v>
+      <c r="L29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -4059,16 +4052,16 @@
         <v>58</v>
       </c>
       <c r="I30" t="s">
+        <v>523</v>
+      </c>
+      <c r="J30" t="s">
         <v>4</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>193</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>523</v>
+      <c r="L30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -4103,16 +4096,16 @@
         <v>70</v>
       </c>
       <c r="I31" t="s">
+        <v>524</v>
+      </c>
+      <c r="J31" t="s">
         <v>9</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>624</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>524</v>
+      <c r="L31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -4147,16 +4140,16 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
+        <v>525</v>
+      </c>
+      <c r="J32" t="s">
         <v>4</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>324</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>525</v>
+      <c r="L32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -4191,16 +4184,16 @@
         <v>33</v>
       </c>
       <c r="I33" t="s">
+        <v>527</v>
+      </c>
+      <c r="J33" t="s">
         <v>4</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>340</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>527</v>
+      <c r="L33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -4235,16 +4228,16 @@
         <v>235</v>
       </c>
       <c r="I34" t="s">
+        <v>528</v>
+      </c>
+      <c r="J34" t="s">
         <v>4</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>787</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>528</v>
+      <c r="L34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -4279,16 +4272,16 @@
         <v>93</v>
       </c>
       <c r="I35" t="s">
+        <v>529</v>
+      </c>
+      <c r="J35" t="s">
         <v>4</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>876</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>529</v>
+      <c r="L35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -4323,16 +4316,16 @@
         <v/>
       </c>
       <c r="I36" t="s">
+        <v>530</v>
+      </c>
+      <c r="J36" t="s">
         <v>16</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>2843917</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
-        <v>530</v>
+      <c r="L36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -4367,16 +4360,16 @@
         <v/>
       </c>
       <c r="I37" t="s">
+        <v>531</v>
+      </c>
+      <c r="J37" t="s">
         <v>16</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>815128</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>531</v>
+      <c r="L37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -4411,16 +4404,16 @@
         <v>158</v>
       </c>
       <c r="I38" t="s">
+        <v>532</v>
+      </c>
+      <c r="J38" t="s">
         <v>4</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>774</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>532</v>
+      <c r="L38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -4455,16 +4448,16 @@
         <v>159</v>
       </c>
       <c r="I39" t="s">
+        <v>533</v>
+      </c>
+      <c r="J39" t="s">
         <v>4</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>782</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>533</v>
+      <c r="L39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -4499,16 +4492,16 @@
         <v>43</v>
       </c>
       <c r="I40" t="s">
+        <v>534</v>
+      </c>
+      <c r="J40" t="s">
         <v>4</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>175</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>534</v>
+      <c r="L40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -4543,16 +4536,16 @@
         <v>301</v>
       </c>
       <c r="I41" t="s">
+        <v>535</v>
+      </c>
+      <c r="J41" t="s">
         <v>4</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>725</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>535</v>
+      <c r="L41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -4587,16 +4580,16 @@
         <v>89</v>
       </c>
       <c r="I42" t="s">
+        <v>536</v>
+      </c>
+      <c r="J42" t="s">
         <v>4</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>905</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>536</v>
+      <c r="L42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -4631,16 +4624,16 @@
         <v>261</v>
       </c>
       <c r="I43" t="s">
+        <v>537</v>
+      </c>
+      <c r="J43" t="s">
         <v>4</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>437</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>537</v>
+      <c r="L43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -4675,16 +4668,16 @@
         <v>79</v>
       </c>
       <c r="I44" t="s">
+        <v>538</v>
+      </c>
+      <c r="J44" t="s">
         <v>4</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>255</v>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>538</v>
+      <c r="L44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -4719,16 +4712,16 @@
         <v/>
       </c>
       <c r="I45" t="s">
+        <v>539</v>
+      </c>
+      <c r="J45" t="s">
         <v>53</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>131</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>539</v>
+      <c r="L45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -4763,16 +4756,16 @@
         <v/>
       </c>
       <c r="I46" t="s">
+        <v>540</v>
+      </c>
+      <c r="J46" t="s">
         <v>53</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>257</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>540</v>
+      <c r="L46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -4807,16 +4800,16 @@
         <v>83</v>
       </c>
       <c r="I47" t="s">
+        <v>541</v>
+      </c>
+      <c r="J47" t="s">
         <v>4</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>886</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>541</v>
+      <c r="L47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -4851,16 +4844,16 @@
         <v>202</v>
       </c>
       <c r="I48" t="s">
+        <v>542</v>
+      </c>
+      <c r="J48" t="s">
         <v>4</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>822</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>542</v>
+      <c r="L48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -4895,16 +4888,16 @@
         <v>194</v>
       </c>
       <c r="I49" t="s">
+        <v>543</v>
+      </c>
+      <c r="J49" t="s">
         <v>4</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>372</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>543</v>
+      <c r="L49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -4939,16 +4932,16 @@
         <v>203</v>
       </c>
       <c r="I50" t="s">
+        <v>544</v>
+      </c>
+      <c r="J50" t="s">
         <v>4</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>820</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>544</v>
+      <c r="L50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -4983,16 +4976,16 @@
         <v>204</v>
       </c>
       <c r="I51" t="s">
+        <v>545</v>
+      </c>
+      <c r="J51" t="s">
         <v>4</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>821</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>545</v>
+      <c r="L51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -5027,16 +5020,16 @@
         <v>13</v>
       </c>
       <c r="I52" t="s">
+        <v>546</v>
+      </c>
+      <c r="J52" t="s">
         <v>4</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>15</v>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>546</v>
+      <c r="L52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -5071,16 +5064,16 @@
         <v>95</v>
       </c>
       <c r="I53" t="s">
+        <v>547</v>
+      </c>
+      <c r="J53" t="s">
         <v>4</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>63</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
-        <v>547</v>
+      <c r="L53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -5115,16 +5108,16 @@
         <v>44</v>
       </c>
       <c r="I54" t="s">
+        <v>548</v>
+      </c>
+      <c r="J54" t="s">
         <v>4</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>128</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
-        <v>548</v>
+      <c r="L54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -5159,16 +5152,16 @@
         <v>205</v>
       </c>
       <c r="I55" t="s">
+        <v>549</v>
+      </c>
+      <c r="J55" t="s">
         <v>4</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>823</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>549</v>
+      <c r="L55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -5203,16 +5196,16 @@
         <v/>
       </c>
       <c r="I56" t="s">
+        <v>550</v>
+      </c>
+      <c r="J56" t="s">
         <v>16</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>814935</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
-        <v>550</v>
+      <c r="L56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -5247,16 +5240,16 @@
         <v>134</v>
       </c>
       <c r="I57" t="s">
+        <v>551</v>
+      </c>
+      <c r="J57" t="s">
         <v>4</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>120</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>551</v>
+      <c r="L57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -5291,16 +5284,16 @@
         <v/>
       </c>
       <c r="I58" t="s">
+        <v>552</v>
+      </c>
+      <c r="J58" t="s">
         <v>53</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>173</v>
       </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>552</v>
+      <c r="L58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -5335,16 +5328,16 @@
         <v>211</v>
       </c>
       <c r="I59" t="s">
+        <v>553</v>
+      </c>
+      <c r="J59" t="s">
         <v>4</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>274</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>553</v>
+      <c r="L59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -5379,16 +5372,16 @@
         <v>244</v>
       </c>
       <c r="I60" t="s">
+        <v>554</v>
+      </c>
+      <c r="J60" t="s">
         <v>4</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>273</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
-        <v>554</v>
+      <c r="L60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -5423,16 +5416,16 @@
         <v>213</v>
       </c>
       <c r="I61" t="s">
+        <v>555</v>
+      </c>
+      <c r="J61" t="s">
         <v>4</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>271</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>555</v>
+      <c r="L61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -5467,16 +5460,16 @@
         <v>101</v>
       </c>
       <c r="I62" t="s">
+        <v>556</v>
+      </c>
+      <c r="J62" t="s">
         <v>4</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>189</v>
       </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>556</v>
+      <c r="L62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -5511,16 +5504,16 @@
         <v>216</v>
       </c>
       <c r="I63" t="s">
+        <v>557</v>
+      </c>
+      <c r="J63" t="s">
         <v>4</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>280</v>
       </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>557</v>
+      <c r="L63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -5555,16 +5548,16 @@
         <v/>
       </c>
       <c r="I64" t="s">
+        <v>558</v>
+      </c>
+      <c r="J64" t="s">
         <v>16</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>815413</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64" t="s">
-        <v>558</v>
+      <c r="L64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5599,16 +5592,16 @@
         <v>243</v>
       </c>
       <c r="I65" t="s">
+        <v>559</v>
+      </c>
+      <c r="J65" t="s">
         <v>4</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>530</v>
       </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>559</v>
+      <c r="L65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5643,16 +5636,16 @@
         <v>91</v>
       </c>
       <c r="I66" t="s">
+        <v>560</v>
+      </c>
+      <c r="J66" t="s">
         <v>4</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>887</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>560</v>
+      <c r="L66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5687,16 +5680,16 @@
         <v>90</v>
       </c>
       <c r="I67" t="s">
+        <v>561</v>
+      </c>
+      <c r="J67" t="s">
         <v>4</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>194</v>
       </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67" t="s">
-        <v>561</v>
+      <c r="L67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5731,16 +5724,16 @@
         <v>232</v>
       </c>
       <c r="I68" t="s">
+        <v>562</v>
+      </c>
+      <c r="J68" t="s">
         <v>4</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>671</v>
       </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" t="s">
-        <v>563</v>
+      <c r="L68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5775,16 +5768,16 @@
         <v>303</v>
       </c>
       <c r="I69" t="s">
+        <v>563</v>
+      </c>
+      <c r="J69" t="s">
         <v>4</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>720</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" t="s">
-        <v>564</v>
+      <c r="L69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5819,16 +5812,16 @@
         <v>29</v>
       </c>
       <c r="I70" t="s">
+        <v>564</v>
+      </c>
+      <c r="J70" t="s">
         <v>489</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>343</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70" t="s">
-        <v>565</v>
+      <c r="L70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5863,16 +5856,16 @@
         <v>12</v>
       </c>
       <c r="I71" t="s">
+        <v>565</v>
+      </c>
+      <c r="J71" t="s">
         <v>4</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>320</v>
       </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>566</v>
+      <c r="L71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5907,16 +5900,16 @@
         <v>217</v>
       </c>
       <c r="I72" t="s">
+        <v>566</v>
+      </c>
+      <c r="J72" t="s">
         <v>4</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>284</v>
       </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72" t="s">
-        <v>567</v>
+      <c r="L72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5951,16 +5944,16 @@
         <v>107</v>
       </c>
       <c r="I73" t="s">
+        <v>567</v>
+      </c>
+      <c r="J73" t="s">
         <v>4</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>176</v>
       </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
-        <v>568</v>
+      <c r="L73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -5995,16 +5988,16 @@
         <v>74</v>
       </c>
       <c r="I74" t="s">
+        <v>568</v>
+      </c>
+      <c r="J74" t="s">
         <v>34</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>647</v>
       </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74" t="s">
-        <v>569</v>
+      <c r="L74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6039,16 +6032,16 @@
         <v>42</v>
       </c>
       <c r="I75" t="s">
+        <v>569</v>
+      </c>
+      <c r="J75" t="s">
         <v>4</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>885</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75" t="s">
-        <v>570</v>
+      <c r="L75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6083,16 +6076,16 @@
         <v>264</v>
       </c>
       <c r="I76" t="s">
+        <v>570</v>
+      </c>
+      <c r="J76" t="s">
         <v>4</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>470</v>
       </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76" t="s">
-        <v>571</v>
+      <c r="L76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6127,16 +6120,16 @@
         <v/>
       </c>
       <c r="I77" t="s">
+        <v>571</v>
+      </c>
+      <c r="J77" t="s">
         <v>16</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>3566359</v>
       </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77" t="s">
-        <v>572</v>
+      <c r="L77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6171,16 +6164,16 @@
         <v>233</v>
       </c>
       <c r="I78" t="s">
+        <v>572</v>
+      </c>
+      <c r="J78" t="s">
         <v>4</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>261</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
-        <v>573</v>
+      <c r="L78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6215,16 +6208,16 @@
         <v>129</v>
       </c>
       <c r="I79" t="s">
+        <v>573</v>
+      </c>
+      <c r="J79" t="s">
         <v>4</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>123</v>
       </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79" t="s">
-        <v>574</v>
+      <c r="L79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6259,16 +6252,16 @@
         <v>236</v>
       </c>
       <c r="I80" t="s">
+        <v>574</v>
+      </c>
+      <c r="J80" t="s">
         <v>4</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>786</v>
       </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
-        <v>575</v>
+      <c r="L80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -6303,16 +6296,16 @@
         <v>200</v>
       </c>
       <c r="I81" t="s">
+        <v>575</v>
+      </c>
+      <c r="J81" t="s">
         <v>4</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>825</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81" t="s">
-        <v>576</v>
+      <c r="L81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -6347,16 +6340,16 @@
         <v>192</v>
       </c>
       <c r="I82" t="s">
+        <v>576</v>
+      </c>
+      <c r="J82" t="s">
         <v>4</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>378</v>
       </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82" t="s">
-        <v>577</v>
+      <c r="L82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -6391,16 +6384,16 @@
         <v>15</v>
       </c>
       <c r="I83" t="s">
+        <v>577</v>
+      </c>
+      <c r="J83" t="s">
         <v>4</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>240</v>
       </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83" t="s">
-        <v>578</v>
+      <c r="L83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -6435,16 +6428,16 @@
         <v>132</v>
       </c>
       <c r="I84" t="s">
+        <v>578</v>
+      </c>
+      <c r="J84" t="s">
         <v>4</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>127</v>
       </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
-        <v>579</v>
+      <c r="L84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -6479,16 +6472,16 @@
         <v>82</v>
       </c>
       <c r="I85" t="s">
+        <v>579</v>
+      </c>
+      <c r="J85" t="s">
         <v>4</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>874</v>
       </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85" t="s">
-        <v>580</v>
+      <c r="L85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -6523,16 +6516,16 @@
         <v>126</v>
       </c>
       <c r="I86" t="s">
+        <v>580</v>
+      </c>
+      <c r="J86" t="s">
         <v>4</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>436</v>
       </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86" t="s">
-        <v>581</v>
+      <c r="L86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -6567,16 +6560,16 @@
         <v>88</v>
       </c>
       <c r="I87" t="s">
+        <v>581</v>
+      </c>
+      <c r="J87" t="s">
         <v>4</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>884</v>
       </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87" t="s">
-        <v>582</v>
+      <c r="L87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -6611,16 +6604,16 @@
         <v>30</v>
       </c>
       <c r="I88" t="s">
+        <v>582</v>
+      </c>
+      <c r="J88" t="s">
         <v>4</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>902</v>
       </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" t="s">
-        <v>583</v>
+      <c r="L88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -6655,16 +6648,16 @@
         <v>80</v>
       </c>
       <c r="I89" t="s">
+        <v>583</v>
+      </c>
+      <c r="J89" t="s">
         <v>4</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>880</v>
       </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" t="s">
-        <v>584</v>
+      <c r="L89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -6699,16 +6692,16 @@
         <v>190</v>
       </c>
       <c r="I90" t="s">
+        <v>584</v>
+      </c>
+      <c r="J90" t="s">
         <v>4</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>382</v>
       </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" t="s">
-        <v>585</v>
+      <c r="L90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -6743,16 +6736,16 @@
         <v/>
       </c>
       <c r="I91" t="s">
+        <v>585</v>
+      </c>
+      <c r="J91" t="s">
         <v>9</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>291</v>
       </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91" t="s">
-        <v>586</v>
+      <c r="L91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -6787,16 +6780,16 @@
         <v>121</v>
       </c>
       <c r="I92" t="s">
+        <v>586</v>
+      </c>
+      <c r="J92" t="s">
         <v>4</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>132</v>
       </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" t="s">
-        <v>587</v>
+      <c r="L92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -6831,16 +6824,16 @@
         <v>214</v>
       </c>
       <c r="I93" t="s">
+        <v>587</v>
+      </c>
+      <c r="J93" t="s">
         <v>4</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>425</v>
       </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93" t="s">
-        <v>588</v>
+      <c r="L93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -6875,16 +6868,16 @@
         <v>9</v>
       </c>
       <c r="I94" t="s">
+        <v>588</v>
+      </c>
+      <c r="J94" t="s">
         <v>4</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>11</v>
       </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94" t="s">
-        <v>589</v>
+      <c r="L94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -6919,16 +6912,16 @@
         <v>7</v>
       </c>
       <c r="I95" t="s">
+        <v>589</v>
+      </c>
+      <c r="J95" t="s">
         <v>4</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>12</v>
       </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95" t="s">
-        <v>590</v>
+      <c r="L95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -6963,16 +6956,16 @@
         <v/>
       </c>
       <c r="I96" t="s">
+        <v>590</v>
+      </c>
+      <c r="J96" t="s">
         <v>9</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>92</v>
       </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96" t="s">
-        <v>591</v>
+      <c r="L96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7007,16 +7000,16 @@
         <v/>
       </c>
       <c r="I97" t="s">
+        <v>591</v>
+      </c>
+      <c r="J97" t="s">
         <v>16</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>814999</v>
       </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97" t="s">
-        <v>592</v>
+      <c r="L97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7051,16 +7044,16 @@
         <v/>
       </c>
       <c r="I98" t="s">
+        <v>592</v>
+      </c>
+      <c r="J98" t="s">
         <v>16</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>815050</v>
       </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" t="s">
-        <v>593</v>
+      <c r="L98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7095,16 +7088,16 @@
         <v>290</v>
       </c>
       <c r="I99" t="s">
+        <v>593</v>
+      </c>
+      <c r="J99" t="s">
         <v>4</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>222</v>
       </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99" t="s">
-        <v>594</v>
+      <c r="L99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7139,16 +7132,16 @@
         <v>241</v>
       </c>
       <c r="I100" t="s">
+        <v>594</v>
+      </c>
+      <c r="J100" t="s">
         <v>4</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>253</v>
       </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100" t="s">
-        <v>595</v>
+      <c r="L100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7183,16 +7176,16 @@
         <v>25</v>
       </c>
       <c r="I101" t="s">
+        <v>595</v>
+      </c>
+      <c r="J101" t="s">
         <v>4</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>333</v>
       </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101" t="s">
-        <v>596</v>
+      <c r="L101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7227,16 +7220,16 @@
         <v>27</v>
       </c>
       <c r="I102" t="s">
+        <v>596</v>
+      </c>
+      <c r="J102" t="s">
         <v>4</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>873</v>
       </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" t="s">
-        <v>597</v>
+      <c r="L102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7271,16 +7264,16 @@
         <v>11</v>
       </c>
       <c r="I103" t="s">
+        <v>597</v>
+      </c>
+      <c r="J103" t="s">
         <v>4</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>13</v>
       </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" t="s">
-        <v>598</v>
+      <c r="L103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7315,16 +7308,16 @@
         <v>28</v>
       </c>
       <c r="I104" t="s">
+        <v>598</v>
+      </c>
+      <c r="J104" t="s">
         <v>4</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>881</v>
       </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104" t="s">
-        <v>599</v>
+      <c r="L104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7359,16 +7352,16 @@
         <v>231</v>
       </c>
       <c r="I105" t="s">
+        <v>599</v>
+      </c>
+      <c r="J105" t="s">
         <v>4</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>250</v>
       </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" t="s">
-        <v>600</v>
+      <c r="L105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7403,16 +7396,16 @@
         <v>274</v>
       </c>
       <c r="I106" t="s">
+        <v>600</v>
+      </c>
+      <c r="J106" t="s">
         <v>4</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>281</v>
       </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106" t="s">
-        <v>601</v>
+      <c r="L106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7447,16 +7440,16 @@
         <v>123</v>
       </c>
       <c r="I107" t="s">
+        <v>601</v>
+      </c>
+      <c r="J107" t="s">
         <v>4</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>131</v>
       </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107" t="s">
-        <v>602</v>
+      <c r="L107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7491,16 +7484,16 @@
         <v>124</v>
       </c>
       <c r="I108" t="s">
+        <v>602</v>
+      </c>
+      <c r="J108" t="s">
         <v>4</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>531</v>
       </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-      <c r="L108" t="s">
-        <v>603</v>
+      <c r="L108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7535,16 +7528,16 @@
         <v>32</v>
       </c>
       <c r="I109" t="s">
+        <v>603</v>
+      </c>
+      <c r="J109" t="s">
         <v>4</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>900</v>
       </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109" t="s">
-        <v>604</v>
+      <c r="L109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7579,16 +7572,16 @@
         <v>16</v>
       </c>
       <c r="I110" t="s">
+        <v>604</v>
+      </c>
+      <c r="J110" t="s">
         <v>4</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>241</v>
       </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110" t="s">
-        <v>605</v>
+      <c r="L110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7623,16 +7616,16 @@
         <v/>
       </c>
       <c r="I111" t="s">
+        <v>605</v>
+      </c>
+      <c r="J111" t="s">
         <v>34</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>658</v>
       </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111" t="s">
-        <v>606</v>
+      <c r="L111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7667,16 +7660,16 @@
         <v>247</v>
       </c>
       <c r="I112" t="s">
+        <v>606</v>
+      </c>
+      <c r="J112" t="s">
         <v>4</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>251</v>
       </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112" t="s">
-        <v>607</v>
+      <c r="L112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7711,16 +7704,16 @@
         <v>57</v>
       </c>
       <c r="I113" t="s">
+        <v>607</v>
+      </c>
+      <c r="J113" t="s">
         <v>4</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>171</v>
       </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113" t="s">
-        <v>608</v>
+      <c r="L113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7755,16 +7748,16 @@
         <v>152</v>
       </c>
       <c r="I114" t="s">
+        <v>608</v>
+      </c>
+      <c r="J114" t="s">
         <v>4</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>627</v>
       </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114" t="s">
-        <v>609</v>
+      <c r="L114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7799,16 +7792,16 @@
         <v>263</v>
       </c>
       <c r="I115" t="s">
+        <v>609</v>
+      </c>
+      <c r="J115" t="s">
         <v>4</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>784</v>
       </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115" t="s">
-        <v>610</v>
+      <c r="L115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7843,16 +7836,16 @@
         <v>266</v>
       </c>
       <c r="I116" t="s">
+        <v>610</v>
+      </c>
+      <c r="J116" t="s">
         <v>4</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>773</v>
       </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116" t="s">
-        <v>611</v>
+      <c r="L116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7887,16 +7880,16 @@
         <v>260</v>
       </c>
       <c r="I117" t="s">
+        <v>611</v>
+      </c>
+      <c r="J117" t="s">
         <v>4</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>430</v>
       </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="L117" t="s">
-        <v>612</v>
+      <c r="L117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7931,16 +7924,16 @@
         <v>278</v>
       </c>
       <c r="I118" t="s">
+        <v>612</v>
+      </c>
+      <c r="J118" t="s">
         <v>4</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>772</v>
       </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="L118" t="s">
-        <v>613</v>
+      <c r="L118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7975,16 +7968,16 @@
         <v>176</v>
       </c>
       <c r="I119" t="s">
+        <v>613</v>
+      </c>
+      <c r="J119" t="s">
         <v>4</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>383</v>
       </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119" t="s">
-        <v>614</v>
+      <c r="L119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -8019,16 +8012,16 @@
         <v>248</v>
       </c>
       <c r="I120" t="s">
+        <v>614</v>
+      </c>
+      <c r="J120" t="s">
         <v>4</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>259</v>
       </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="L120" t="s">
-        <v>615</v>
+      <c r="L120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -8063,16 +8056,16 @@
         <v>41</v>
       </c>
       <c r="I121" t="s">
+        <v>615</v>
+      </c>
+      <c r="J121" t="s">
         <v>488</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>341</v>
       </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121" t="s">
-        <v>616</v>
+      <c r="L121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -8107,16 +8100,16 @@
         <v>14</v>
       </c>
       <c r="I122" t="s">
+        <v>616</v>
+      </c>
+      <c r="J122" t="s">
         <v>4</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>322</v>
       </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-      <c r="L122" t="s">
-        <v>617</v>
+      <c r="L122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -8151,16 +8144,16 @@
         <v>34</v>
       </c>
       <c r="I123" t="s">
+        <v>617</v>
+      </c>
+      <c r="J123" t="s">
         <v>4</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>527</v>
       </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-      <c r="L123" t="s">
-        <v>618</v>
+      <c r="L123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -8195,16 +8188,16 @@
         <v>84</v>
       </c>
       <c r="I124" t="s">
+        <v>618</v>
+      </c>
+      <c r="J124" t="s">
         <v>4</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>431</v>
       </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" t="s">
-        <v>619</v>
+      <c r="L124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -8239,16 +8232,16 @@
         <v>20</v>
       </c>
       <c r="I125" t="s">
+        <v>619</v>
+      </c>
+      <c r="J125" t="s">
         <v>4</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>70</v>
       </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
-      <c r="L125" t="s">
-        <v>620</v>
+      <c r="L125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8283,16 +8276,16 @@
         <v>219</v>
       </c>
       <c r="I126" t="s">
+        <v>620</v>
+      </c>
+      <c r="J126" t="s">
         <v>4</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>423</v>
       </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126" t="s">
-        <v>621</v>
+      <c r="L126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8327,16 +8320,16 @@
         <v>54</v>
       </c>
       <c r="I127" t="s">
+        <v>621</v>
+      </c>
+      <c r="J127" t="s">
         <v>4</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>178</v>
       </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127" t="s">
-        <v>622</v>
+      <c r="L127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8371,16 +8364,16 @@
         <v>136</v>
       </c>
       <c r="I128" t="s">
+        <v>622</v>
+      </c>
+      <c r="J128" t="s">
         <v>4</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>124</v>
       </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128" t="s">
-        <v>623</v>
+      <c r="L128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -8415,16 +8408,16 @@
         <v>210</v>
       </c>
       <c r="I129" t="s">
+        <v>623</v>
+      </c>
+      <c r="J129" t="s">
         <v>4</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>426</v>
       </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129" t="s">
-        <v>624</v>
+      <c r="L129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -8459,16 +8452,16 @@
         <v>245</v>
       </c>
       <c r="I130" t="s">
+        <v>624</v>
+      </c>
+      <c r="J130" t="s">
         <v>4</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>256</v>
       </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-      <c r="L130" t="s">
-        <v>625</v>
+      <c r="L130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -8503,16 +8496,16 @@
         <v>292</v>
       </c>
       <c r="I131" t="s">
+        <v>625</v>
+      </c>
+      <c r="J131" t="s">
         <v>4</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>220</v>
       </c>
-      <c r="K131">
-        <v>1</v>
-      </c>
-      <c r="L131" t="s">
-        <v>626</v>
+      <c r="L131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -8547,16 +8540,16 @@
         <v/>
       </c>
       <c r="I132" t="s">
+        <v>626</v>
+      </c>
+      <c r="J132" t="s">
         <v>9</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>544</v>
       </c>
-      <c r="K132">
-        <v>1</v>
-      </c>
-      <c r="L132" t="s">
-        <v>627</v>
+      <c r="L132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -8591,16 +8584,16 @@
         <v>320</v>
       </c>
       <c r="I133" t="s">
+        <v>627</v>
+      </c>
+      <c r="J133" t="s">
         <v>4</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>183</v>
       </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-      <c r="L133" t="s">
-        <v>628</v>
+      <c r="L133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -8635,16 +8628,16 @@
         <v>267</v>
       </c>
       <c r="I134" t="s">
+        <v>628</v>
+      </c>
+      <c r="J134" t="s">
         <v>4</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>440</v>
       </c>
-      <c r="K134">
-        <v>1</v>
-      </c>
-      <c r="L134" t="s">
-        <v>629</v>
+      <c r="L134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -8679,16 +8672,16 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
+        <v>629</v>
+      </c>
+      <c r="J135" t="s">
         <v>4</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>14</v>
       </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-      <c r="L135" t="s">
-        <v>630</v>
+      <c r="L135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -8723,16 +8716,16 @@
         <v>26</v>
       </c>
       <c r="I136" t="s">
+        <v>630</v>
+      </c>
+      <c r="J136" t="s">
         <v>4</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>625</v>
       </c>
-      <c r="K136">
-        <v>1</v>
-      </c>
-      <c r="L136" t="s">
-        <v>631</v>
+      <c r="L136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -8767,16 +8760,16 @@
         <v>81</v>
       </c>
       <c r="I137" t="s">
+        <v>631</v>
+      </c>
+      <c r="J137" t="s">
         <v>4</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>882</v>
       </c>
-      <c r="K137">
-        <v>1</v>
-      </c>
-      <c r="L137" t="s">
-        <v>632</v>
+      <c r="L137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -8811,16 +8804,16 @@
         <v>131</v>
       </c>
       <c r="I138" t="s">
+        <v>632</v>
+      </c>
+      <c r="J138" t="s">
         <v>4</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>133</v>
       </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="L138" t="s">
-        <v>633</v>
+      <c r="L138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -8855,16 +8848,16 @@
         <v>230</v>
       </c>
       <c r="I139" t="s">
+        <v>633</v>
+      </c>
+      <c r="J139" t="s">
         <v>4</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>883</v>
       </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-      <c r="L139" t="s">
-        <v>634</v>
+      <c r="L139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -8899,16 +8892,16 @@
         <v>122</v>
       </c>
       <c r="I140" t="s">
+        <v>634</v>
+      </c>
+      <c r="J140" t="s">
         <v>4</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>130</v>
       </c>
-      <c r="K140">
-        <v>1</v>
-      </c>
-      <c r="L140" t="s">
-        <v>635</v>
+      <c r="L140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -8943,16 +8936,16 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
+        <v>635</v>
+      </c>
+      <c r="J141" t="s">
         <v>4</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>901</v>
       </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141" t="s">
-        <v>636</v>
+      <c r="L141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -8987,16 +8980,16 @@
         <v>56</v>
       </c>
       <c r="I142" t="s">
+        <v>636</v>
+      </c>
+      <c r="J142" t="s">
         <v>4</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>192</v>
       </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
-      <c r="L142" t="s">
-        <v>637</v>
+      <c r="L142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -9031,16 +9024,16 @@
         <v/>
       </c>
       <c r="I143" t="s">
+        <v>637</v>
+      </c>
+      <c r="J143" t="s">
         <v>9</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>514</v>
       </c>
-      <c r="K143">
-        <v>1</v>
-      </c>
-      <c r="L143" t="s">
-        <v>638</v>
+      <c r="L143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -9075,16 +9068,16 @@
         <v>40</v>
       </c>
       <c r="I144" t="s">
+        <v>638</v>
+      </c>
+      <c r="J144" t="s">
         <v>4</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>871</v>
       </c>
-      <c r="K144">
-        <v>1</v>
-      </c>
-      <c r="L144" t="s">
-        <v>639</v>
+      <c r="L144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -9119,16 +9112,16 @@
         <v/>
       </c>
       <c r="I145" t="s">
+        <v>639</v>
+      </c>
+      <c r="J145" t="s">
         <v>9</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>970</v>
       </c>
-      <c r="K145">
-        <v>1</v>
-      </c>
-      <c r="L145" t="s">
-        <v>640</v>
+      <c r="L145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -9163,16 +9156,16 @@
         <v/>
       </c>
       <c r="I146" t="s">
+        <v>640</v>
+      </c>
+      <c r="J146" t="s">
         <v>9</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>40</v>
       </c>
-      <c r="K146">
-        <v>1</v>
-      </c>
-      <c r="L146" t="s">
-        <v>641</v>
+      <c r="L146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -9207,16 +9200,16 @@
         <v/>
       </c>
       <c r="I147" t="s">
+        <v>641</v>
+      </c>
+      <c r="J147" t="s">
         <v>9</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>568</v>
       </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-      <c r="L147" t="s">
-        <v>642</v>
+      <c r="L147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -9251,16 +9244,16 @@
         <v>94</v>
       </c>
       <c r="I148" t="s">
+        <v>642</v>
+      </c>
+      <c r="J148" t="s">
         <v>490</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>889</v>
       </c>
-      <c r="K148">
-        <v>1</v>
-      </c>
-      <c r="L148" t="s">
-        <v>643</v>
+      <c r="L148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -9295,16 +9288,16 @@
         <v>125</v>
       </c>
       <c r="I149" t="s">
+        <v>643</v>
+      </c>
+      <c r="J149" t="s">
         <v>4</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>282</v>
       </c>
-      <c r="K149">
-        <v>1</v>
-      </c>
-      <c r="L149" t="s">
-        <v>644</v>
+      <c r="L149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -9339,16 +9332,16 @@
         <v>246</v>
       </c>
       <c r="I150" t="s">
+        <v>644</v>
+      </c>
+      <c r="J150" t="s">
         <v>4</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>283</v>
       </c>
-      <c r="K150">
-        <v>1</v>
-      </c>
-      <c r="L150" t="s">
-        <v>645</v>
+      <c r="L150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -9383,16 +9376,16 @@
         <v/>
       </c>
       <c r="I151" t="s">
+        <v>645</v>
+      </c>
+      <c r="J151" t="s">
         <v>53</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>100</v>
       </c>
-      <c r="K151">
-        <v>1</v>
-      </c>
-      <c r="L151" t="s">
-        <v>646</v>
+      <c r="L151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -9427,16 +9420,16 @@
         <v/>
       </c>
       <c r="I152" t="s">
+        <v>646</v>
+      </c>
+      <c r="J152" t="s">
         <v>9</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>500</v>
       </c>
-      <c r="K152">
-        <v>1</v>
-      </c>
-      <c r="L152" t="s">
-        <v>647</v>
+      <c r="L152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -9471,16 +9464,16 @@
         <v/>
       </c>
       <c r="I153" t="s">
+        <v>647</v>
+      </c>
+      <c r="J153" t="s">
         <v>16</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>814939</v>
       </c>
-      <c r="K153">
-        <v>1</v>
-      </c>
-      <c r="L153" t="s">
-        <v>648</v>
+      <c r="L153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -9515,16 +9508,16 @@
         <v>120</v>
       </c>
       <c r="I154" t="s">
+        <v>661</v>
+      </c>
+      <c r="J154" t="s">
         <v>4</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>125</v>
       </c>
-      <c r="K154">
-        <v>1</v>
-      </c>
-      <c r="L154" t="s">
-        <v>662</v>
+      <c r="L154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -9559,16 +9552,16 @@
         <v>137</v>
       </c>
       <c r="I155" t="s">
+        <v>648</v>
+      </c>
+      <c r="J155" t="s">
         <v>4</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>254</v>
       </c>
-      <c r="K155">
-        <v>1</v>
-      </c>
-      <c r="L155" t="s">
-        <v>649</v>
+      <c r="L155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -9603,16 +9596,16 @@
         <v>127</v>
       </c>
       <c r="I156" t="s">
+        <v>649</v>
+      </c>
+      <c r="J156" t="s">
         <v>4</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>134</v>
       </c>
-      <c r="K156">
-        <v>1</v>
-      </c>
-      <c r="L156" t="s">
-        <v>650</v>
+      <c r="L156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -9647,16 +9640,16 @@
         <v>128</v>
       </c>
       <c r="I157" t="s">
+        <v>650</v>
+      </c>
+      <c r="J157" t="s">
         <v>4</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <v>424</v>
       </c>
-      <c r="K157">
-        <v>1</v>
-      </c>
-      <c r="L157" t="s">
-        <v>651</v>
+      <c r="L157">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -9691,16 +9684,16 @@
         <v/>
       </c>
       <c r="I158" t="s">
+        <v>651</v>
+      </c>
+      <c r="J158" t="s">
         <v>34</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <v>637</v>
       </c>
-      <c r="K158">
-        <v>1</v>
-      </c>
-      <c r="L158" t="s">
-        <v>652</v>
+      <c r="L158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -9735,16 +9728,16 @@
         <v>135</v>
       </c>
       <c r="I159" t="s">
+        <v>652</v>
+      </c>
+      <c r="J159" t="s">
         <v>4</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>781</v>
       </c>
-      <c r="K159">
-        <v>1</v>
-      </c>
-      <c r="L159" t="s">
-        <v>653</v>
+      <c r="L159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -9779,16 +9772,16 @@
         <v>308</v>
       </c>
       <c r="I160" t="s">
+        <v>653</v>
+      </c>
+      <c r="J160" t="s">
         <v>4</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <v>278</v>
       </c>
-      <c r="K160">
-        <v>1</v>
-      </c>
-      <c r="L160" t="s">
-        <v>654</v>
+      <c r="L160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -9823,16 +9816,16 @@
         <v/>
       </c>
       <c r="I161" t="s">
+        <v>654</v>
+      </c>
+      <c r="J161" t="s">
         <v>34</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>628</v>
       </c>
-      <c r="K161">
-        <v>1</v>
-      </c>
-      <c r="L161" t="s">
-        <v>655</v>
+      <c r="L161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -9867,16 +9860,16 @@
         <v>60</v>
       </c>
       <c r="I162" t="s">
+        <v>655</v>
+      </c>
+      <c r="J162" t="s">
         <v>4</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <v>776</v>
       </c>
-      <c r="K162">
-        <v>1</v>
-      </c>
-      <c r="L162" t="s">
-        <v>656</v>
+      <c r="L162">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -9911,16 +9904,16 @@
         <v>55</v>
       </c>
       <c r="I163" t="s">
+        <v>656</v>
+      </c>
+      <c r="J163" t="s">
         <v>4</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <v>179</v>
       </c>
-      <c r="K163">
-        <v>1</v>
-      </c>
-      <c r="L163" t="s">
-        <v>657</v>
+      <c r="L163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -9955,16 +9948,16 @@
         <v/>
       </c>
       <c r="I164" t="s">
+        <v>657</v>
+      </c>
+      <c r="J164" t="s">
         <v>53</v>
       </c>
-      <c r="J164">
+      <c r="K164">
         <v>94</v>
       </c>
-      <c r="K164">
-        <v>1</v>
-      </c>
-      <c r="L164" t="s">
-        <v>658</v>
+      <c r="L164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -9999,16 +9992,16 @@
         <v>272</v>
       </c>
       <c r="I165" t="s">
+        <v>658</v>
+      </c>
+      <c r="J165" t="s">
         <v>4</v>
       </c>
-      <c r="J165">
+      <c r="K165">
         <v>171</v>
       </c>
-      <c r="K165">
-        <v>1</v>
-      </c>
-      <c r="L165" t="s">
-        <v>659</v>
+      <c r="L165">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -10043,16 +10036,16 @@
         <v>109</v>
       </c>
       <c r="I166" t="s">
+        <v>659</v>
+      </c>
+      <c r="J166" t="s">
         <v>4</v>
       </c>
-      <c r="J166">
+      <c r="K166">
         <v>173</v>
       </c>
-      <c r="K166">
-        <v>1</v>
-      </c>
-      <c r="L166" t="s">
-        <v>660</v>
+      <c r="L166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -10087,16 +10080,16 @@
         <v>133</v>
       </c>
       <c r="I167" t="s">
+        <v>660</v>
+      </c>
+      <c r="J167" t="s">
         <v>4</v>
       </c>
-      <c r="J167">
+      <c r="K167">
         <v>135</v>
       </c>
-      <c r="K167">
-        <v>1</v>
-      </c>
-      <c r="L167" t="s">
-        <v>661</v>
+      <c r="L167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -10131,16 +10124,16 @@
         <v>59</v>
       </c>
       <c r="I168" t="s">
+        <v>664</v>
+      </c>
+      <c r="J168" t="s">
         <v>4</v>
       </c>
-      <c r="J168">
+      <c r="K168">
         <v>198</v>
       </c>
-      <c r="K168">
-        <v>1</v>
-      </c>
-      <c r="L168" t="s">
-        <v>665</v>
+      <c r="L168">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -10175,16 +10168,16 @@
         <v>170</v>
       </c>
       <c r="I169" t="s">
+        <v>665</v>
+      </c>
+      <c r="J169" t="s">
         <v>4</v>
       </c>
-      <c r="J169">
+      <c r="K169">
         <v>376</v>
       </c>
-      <c r="K169">
-        <v>1</v>
-      </c>
-      <c r="L169" t="s">
-        <v>666</v>
+      <c r="L169">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -10219,16 +10212,16 @@
         <v/>
       </c>
       <c r="I170" t="s">
+        <v>666</v>
+      </c>
+      <c r="J170" t="s">
         <v>16</v>
       </c>
-      <c r="J170">
+      <c r="K170">
         <v>815040</v>
       </c>
-      <c r="K170">
-        <v>1</v>
-      </c>
-      <c r="L170" t="s">
-        <v>667</v>
+      <c r="L170">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -10263,16 +10256,16 @@
         <v>279</v>
       </c>
       <c r="I171" t="s">
+        <v>667</v>
+      </c>
+      <c r="J171" t="s">
         <v>4</v>
       </c>
-      <c r="J171">
+      <c r="K171">
         <v>780</v>
       </c>
-      <c r="K171">
-        <v>1</v>
-      </c>
-      <c r="L171" t="s">
-        <v>668</v>
+      <c r="L171">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -10307,16 +10300,16 @@
         <v>17</v>
       </c>
       <c r="I172" t="s">
+        <v>668</v>
+      </c>
+      <c r="J172" t="s">
         <v>4</v>
       </c>
-      <c r="J172">
+      <c r="K172">
         <v>872</v>
       </c>
-      <c r="K172">
-        <v>1</v>
-      </c>
-      <c r="L172" t="s">
-        <v>669</v>
+      <c r="L172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -10351,16 +10344,16 @@
         <v>19</v>
       </c>
       <c r="I173" t="s">
+        <v>669</v>
+      </c>
+      <c r="J173" t="s">
         <v>4</v>
       </c>
-      <c r="J173">
+      <c r="K173">
         <v>243</v>
       </c>
-      <c r="K173">
-        <v>1</v>
-      </c>
-      <c r="L173" t="s">
-        <v>670</v>
+      <c r="L173">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -10395,16 +10388,16 @@
         <v>322</v>
       </c>
       <c r="I174" t="s">
+        <v>670</v>
+      </c>
+      <c r="J174" t="s">
         <v>4</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <v>188</v>
       </c>
-      <c r="K174">
-        <v>1</v>
-      </c>
-      <c r="L174" t="s">
-        <v>671</v>
+      <c r="L174">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -10439,16 +10432,16 @@
         <v>37</v>
       </c>
       <c r="I175" t="s">
+        <v>671</v>
+      </c>
+      <c r="J175" t="s">
         <v>491</v>
       </c>
-      <c r="J175">
+      <c r="K175">
         <v>342</v>
       </c>
-      <c r="K175">
-        <v>1</v>
-      </c>
-      <c r="L175" t="s">
-        <v>672</v>
+      <c r="L175">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -10483,16 +10476,16 @@
         <v>309</v>
       </c>
       <c r="I176" t="s">
+        <v>672</v>
+      </c>
+      <c r="J176" t="s">
         <v>4</v>
       </c>
-      <c r="J176">
+      <c r="K176">
         <v>270</v>
       </c>
-      <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176" t="s">
-        <v>673</v>
+      <c r="L176">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -10527,16 +10520,16 @@
         <v>85</v>
       </c>
       <c r="I177" t="s">
+        <v>673</v>
+      </c>
+      <c r="J177" t="s">
         <v>4</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <v>185</v>
       </c>
-      <c r="K177">
-        <v>1</v>
-      </c>
-      <c r="L177" t="s">
-        <v>674</v>
+      <c r="L177">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -10571,16 +10564,16 @@
         <v>24</v>
       </c>
       <c r="I178" t="s">
+        <v>674</v>
+      </c>
+      <c r="J178" t="s">
         <v>4</v>
       </c>
-      <c r="J178">
+      <c r="K178">
         <v>570</v>
       </c>
-      <c r="K178">
-        <v>1</v>
-      </c>
-      <c r="L178" t="s">
-        <v>675</v>
+      <c r="L178">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -10615,16 +10608,16 @@
         <v>262</v>
       </c>
       <c r="I179" t="s">
+        <v>675</v>
+      </c>
+      <c r="J179" t="s">
         <v>4</v>
       </c>
-      <c r="J179">
+      <c r="K179">
         <v>422</v>
       </c>
-      <c r="K179">
-        <v>1</v>
-      </c>
-      <c r="L179" t="s">
-        <v>676</v>
+      <c r="L179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -10659,16 +10652,16 @@
         <v>157</v>
       </c>
       <c r="I180" t="s">
+        <v>676</v>
+      </c>
+      <c r="J180" t="s">
         <v>4</v>
       </c>
-      <c r="J180">
+      <c r="K180">
         <v>632</v>
       </c>
-      <c r="K180">
-        <v>1</v>
-      </c>
-      <c r="L180" t="s">
-        <v>677</v>
+      <c r="L180">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -10703,16 +10696,16 @@
         <v/>
       </c>
       <c r="I181" t="s">
+        <v>677</v>
+      </c>
+      <c r="J181" t="s">
         <v>16</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <v>814829</v>
       </c>
-      <c r="K181">
-        <v>1</v>
-      </c>
-      <c r="L181" t="s">
-        <v>678</v>
+      <c r="L181">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -10747,16 +10740,16 @@
         <v/>
       </c>
       <c r="I182" t="s">
+        <v>678</v>
+      </c>
+      <c r="J182" t="s">
         <v>9</v>
       </c>
-      <c r="J182">
+      <c r="K182">
         <v>698</v>
       </c>
-      <c r="K182">
-        <v>1</v>
-      </c>
-      <c r="L182" t="s">
-        <v>679</v>
+      <c r="L182">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -10791,16 +10784,16 @@
         <v>291</v>
       </c>
       <c r="I183" t="s">
+        <v>679</v>
+      </c>
+      <c r="J183" t="s">
         <v>4</v>
       </c>
-      <c r="J183">
+      <c r="K183">
         <v>221</v>
       </c>
-      <c r="K183">
-        <v>1</v>
-      </c>
-      <c r="L183" t="s">
-        <v>680</v>
+      <c r="L183">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -10835,16 +10828,16 @@
         <v/>
       </c>
       <c r="I184" t="s">
+        <v>680</v>
+      </c>
+      <c r="J184" t="s">
         <v>34</v>
       </c>
-      <c r="J184">
+      <c r="K184">
         <v>643</v>
       </c>
-      <c r="K184">
-        <v>1</v>
-      </c>
-      <c r="L184" t="s">
-        <v>681</v>
+      <c r="L184">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -10879,16 +10872,16 @@
         <v/>
       </c>
       <c r="I185" t="s">
+        <v>681</v>
+      </c>
+      <c r="J185" t="s">
         <v>34</v>
       </c>
-      <c r="J185">
+      <c r="K185">
         <v>638</v>
       </c>
-      <c r="K185">
-        <v>1</v>
-      </c>
-      <c r="L185" t="s">
-        <v>682</v>
+      <c r="L185">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -10923,16 +10916,16 @@
         <v/>
       </c>
       <c r="I186" t="s">
+        <v>682</v>
+      </c>
+      <c r="J186" t="s">
         <v>16</v>
       </c>
-      <c r="J186">
+      <c r="K186">
         <v>815055</v>
       </c>
-      <c r="K186">
-        <v>1</v>
-      </c>
-      <c r="L186" t="s">
-        <v>683</v>
+      <c r="L186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -10967,16 +10960,16 @@
         <v>191</v>
       </c>
       <c r="I187" t="s">
+        <v>683</v>
+      </c>
+      <c r="J187" t="s">
         <v>4</v>
       </c>
-      <c r="J187">
+      <c r="K187">
         <v>374</v>
       </c>
-      <c r="K187">
-        <v>1</v>
-      </c>
-      <c r="L187" t="s">
-        <v>684</v>
+      <c r="L187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -11011,16 +11004,16 @@
         <v>218</v>
       </c>
       <c r="I188" t="s">
+        <v>684</v>
+      </c>
+      <c r="J188" t="s">
         <v>4</v>
       </c>
-      <c r="J188">
+      <c r="K188">
         <v>272</v>
       </c>
-      <c r="K188">
-        <v>1</v>
-      </c>
-      <c r="L188" t="s">
-        <v>685</v>
+      <c r="L188">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -11055,16 +11048,16 @@
         <v>46</v>
       </c>
       <c r="I189" t="s">
+        <v>685</v>
+      </c>
+      <c r="J189" t="s">
         <v>4</v>
       </c>
-      <c r="J189">
+      <c r="K189">
         <v>875</v>
       </c>
-      <c r="K189">
-        <v>1</v>
-      </c>
-      <c r="L189" t="s">
-        <v>686</v>
+      <c r="L189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -11099,16 +11092,16 @@
         <v>36</v>
       </c>
       <c r="I190" t="s">
+        <v>686</v>
+      </c>
+      <c r="J190" t="s">
         <v>4</v>
       </c>
-      <c r="J190">
+      <c r="K190">
         <v>903</v>
       </c>
-      <c r="K190">
-        <v>1</v>
-      </c>
-      <c r="L190" t="s">
-        <v>687</v>
+      <c r="L190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -11143,16 +11136,16 @@
         <v>38</v>
       </c>
       <c r="I191" t="s">
+        <v>687</v>
+      </c>
+      <c r="J191" t="s">
         <v>4</v>
       </c>
-      <c r="J191">
+      <c r="K191">
         <v>904</v>
       </c>
-      <c r="K191">
-        <v>1</v>
-      </c>
-      <c r="L191" t="s">
-        <v>688</v>
+      <c r="L191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -11187,16 +11180,16 @@
         <v>45</v>
       </c>
       <c r="I192" t="s">
+        <v>688</v>
+      </c>
+      <c r="J192" t="s">
         <v>4</v>
       </c>
-      <c r="J192">
+      <c r="K192">
         <v>170</v>
       </c>
-      <c r="K192">
-        <v>1</v>
-      </c>
-      <c r="L192" t="s">
-        <v>689</v>
+      <c r="L192">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -11231,16 +11224,16 @@
         <v>172</v>
       </c>
       <c r="I193" t="s">
+        <v>689</v>
+      </c>
+      <c r="J193" t="s">
         <v>4</v>
       </c>
-      <c r="J193">
+      <c r="K193">
         <v>381</v>
       </c>
-      <c r="K193">
-        <v>1</v>
-      </c>
-      <c r="L193" t="s">
-        <v>690</v>
+      <c r="L193">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -11275,16 +11268,16 @@
         <v>171</v>
       </c>
       <c r="I194" t="s">
+        <v>690</v>
+      </c>
+      <c r="J194" t="s">
         <v>4</v>
       </c>
-      <c r="J194">
+      <c r="K194">
         <v>380</v>
       </c>
-      <c r="K194">
-        <v>1</v>
-      </c>
-      <c r="L194" t="s">
-        <v>691</v>
+      <c r="L194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -11319,16 +11312,16 @@
         <v/>
       </c>
       <c r="I195" t="s">
+        <v>691</v>
+      </c>
+      <c r="J195" t="s">
         <v>9</v>
       </c>
-      <c r="J195">
+      <c r="K195">
         <v>548</v>
       </c>
-      <c r="K195">
-        <v>1</v>
-      </c>
-      <c r="L195" t="s">
-        <v>692</v>
+      <c r="L195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -11363,16 +11356,16 @@
         <v>10</v>
       </c>
       <c r="I196" t="s">
+        <v>692</v>
+      </c>
+      <c r="J196" t="s">
         <v>4</v>
       </c>
-      <c r="J196">
+      <c r="K196">
         <v>323</v>
       </c>
-      <c r="K196">
-        <v>1</v>
-      </c>
-      <c r="L196" t="s">
-        <v>693</v>
+      <c r="L196">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -11407,16 +11400,16 @@
         <v/>
       </c>
       <c r="I197" t="s">
+        <v>693</v>
+      </c>
+      <c r="J197" t="s">
         <v>9</v>
       </c>
-      <c r="J197">
+      <c r="K197">
         <v>28</v>
       </c>
-      <c r="K197">
-        <v>1</v>
-      </c>
-      <c r="L197" t="s">
-        <v>694</v>
+      <c r="L197">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -11451,16 +11444,16 @@
         <v>92</v>
       </c>
       <c r="I198" t="s">
+        <v>694</v>
+      </c>
+      <c r="J198" t="s">
         <v>4</v>
       </c>
-      <c r="J198">
+      <c r="K198">
         <v>258</v>
       </c>
-      <c r="K198">
-        <v>1</v>
-      </c>
-      <c r="L198" t="s">
-        <v>695</v>
+      <c r="L198">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -11495,16 +11488,16 @@
         <v>153</v>
       </c>
       <c r="I199" t="s">
+        <v>695</v>
+      </c>
+      <c r="J199" t="s">
         <v>4</v>
       </c>
-      <c r="J199">
+      <c r="K199">
         <v>628</v>
       </c>
-      <c r="K199">
-        <v>1</v>
-      </c>
-      <c r="L199" t="s">
-        <v>696</v>
+      <c r="L199">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -11539,16 +11532,16 @@
         <v>321</v>
       </c>
       <c r="I200" t="s">
+        <v>696</v>
+      </c>
+      <c r="J200" t="s">
         <v>4</v>
       </c>
-      <c r="J200">
+      <c r="K200">
         <v>184</v>
       </c>
-      <c r="K200">
-        <v>1</v>
-      </c>
-      <c r="L200" t="s">
-        <v>697</v>
+      <c r="L200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -11583,16 +11576,16 @@
         <v>240</v>
       </c>
       <c r="I201" t="s">
+        <v>697</v>
+      </c>
+      <c r="J201" t="s">
         <v>4</v>
       </c>
-      <c r="J201">
+      <c r="K201">
         <v>528</v>
       </c>
-      <c r="K201">
-        <v>1</v>
-      </c>
-      <c r="L201" t="s">
-        <v>698</v>
+      <c r="L201">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -11627,16 +11620,16 @@
         <v/>
       </c>
       <c r="I202" t="s">
+        <v>698</v>
+      </c>
+      <c r="J202" t="s">
         <v>16</v>
       </c>
-      <c r="J202">
+      <c r="K202">
         <v>815085</v>
       </c>
-      <c r="K202">
-        <v>1</v>
-      </c>
-      <c r="L202" t="s">
-        <v>699</v>
+      <c r="L202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -11671,16 +11664,16 @@
         <v>293</v>
       </c>
       <c r="I203" t="s">
+        <v>699</v>
+      </c>
+      <c r="J203" t="s">
         <v>4</v>
       </c>
-      <c r="J203">
+      <c r="K203">
         <v>223</v>
       </c>
-      <c r="K203">
-        <v>1</v>
-      </c>
-      <c r="L203" t="s">
-        <v>700</v>
+      <c r="L203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -11715,16 +11708,16 @@
         <v/>
       </c>
       <c r="I204" t="s">
+        <v>700</v>
+      </c>
+      <c r="J204" t="s">
         <v>9</v>
       </c>
-      <c r="J204">
+      <c r="K204">
         <v>125</v>
       </c>
-      <c r="K204">
-        <v>1</v>
-      </c>
-      <c r="L204" t="s">
-        <v>701</v>
+      <c r="L204">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -11759,16 +11752,16 @@
         <v/>
       </c>
       <c r="I205" t="s">
-        <v>663</v>
-      </c>
-      <c r="J205">
+        <v>701</v>
+      </c>
+      <c r="J205" t="s">
+        <v>662</v>
+      </c>
+      <c r="K205">
         <v>620</v>
       </c>
-      <c r="K205">
-        <v>1</v>
-      </c>
-      <c r="L205" t="s">
-        <v>702</v>
+      <c r="L205">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -11803,16 +11796,16 @@
         <v>175</v>
       </c>
       <c r="I206" t="s">
+        <v>702</v>
+      </c>
+      <c r="J206" t="s">
         <v>4</v>
       </c>
-      <c r="J206">
+      <c r="K206">
         <v>433</v>
       </c>
-      <c r="K206">
-        <v>1</v>
-      </c>
-      <c r="L206" t="s">
-        <v>703</v>
+      <c r="L206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -11847,16 +11840,16 @@
         <v>242</v>
       </c>
       <c r="I207" t="s">
+        <v>703</v>
+      </c>
+      <c r="J207" t="s">
         <v>4</v>
       </c>
-      <c r="J207">
+      <c r="K207">
         <v>279</v>
       </c>
-      <c r="K207">
-        <v>1</v>
-      </c>
-      <c r="L207" t="s">
-        <v>704</v>
+      <c r="L207">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -11891,16 +11884,16 @@
         <v/>
       </c>
       <c r="I208" t="s">
+        <v>704</v>
+      </c>
+      <c r="J208" t="s">
         <v>16</v>
       </c>
-      <c r="J208">
+      <c r="K208">
         <v>815484</v>
       </c>
-      <c r="K208">
-        <v>1</v>
-      </c>
-      <c r="L208" t="s">
-        <v>705</v>
+      <c r="L208">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
@@ -11935,16 +11928,16 @@
         <v/>
       </c>
       <c r="I209" t="s">
+        <v>705</v>
+      </c>
+      <c r="J209" t="s">
         <v>16</v>
       </c>
-      <c r="J209">
+      <c r="K209">
         <v>814883</v>
       </c>
-      <c r="K209">
-        <v>1</v>
-      </c>
-      <c r="L209" t="s">
-        <v>706</v>
+      <c r="L209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
@@ -11979,16 +11972,16 @@
         <v>156</v>
       </c>
       <c r="I210" t="s">
+        <v>706</v>
+      </c>
+      <c r="J210" t="s">
         <v>4</v>
       </c>
-      <c r="J210">
+      <c r="K210">
         <v>629</v>
       </c>
-      <c r="K210">
-        <v>1</v>
-      </c>
-      <c r="L210" t="s">
-        <v>707</v>
+      <c r="L210">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
@@ -12023,16 +12016,16 @@
         <v>275</v>
       </c>
       <c r="I211" t="s">
+        <v>707</v>
+      </c>
+      <c r="J211" t="s">
         <v>4</v>
       </c>
-      <c r="J211">
+      <c r="K211">
         <v>442</v>
       </c>
-      <c r="K211">
-        <v>1</v>
-      </c>
-      <c r="L211" t="s">
-        <v>708</v>
+      <c r="L211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
@@ -12067,16 +12060,16 @@
         <v>271</v>
       </c>
       <c r="I212" t="s">
+        <v>708</v>
+      </c>
+      <c r="J212" t="s">
         <v>4</v>
       </c>
-      <c r="J212">
+      <c r="K212">
         <v>428</v>
       </c>
-      <c r="K212">
-        <v>1</v>
-      </c>
-      <c r="L212" t="s">
-        <v>709</v>
+      <c r="L212">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
@@ -12111,16 +12104,16 @@
         <v>35</v>
       </c>
       <c r="I213" t="s">
+        <v>709</v>
+      </c>
+      <c r="J213" t="s">
         <v>4</v>
       </c>
-      <c r="J213">
+      <c r="K213">
         <v>336</v>
       </c>
-      <c r="K213">
-        <v>1</v>
-      </c>
-      <c r="L213" t="s">
-        <v>710</v>
+      <c r="L213">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
@@ -12155,16 +12148,16 @@
         <v>22</v>
       </c>
       <c r="I214" t="s">
+        <v>710</v>
+      </c>
+      <c r="J214" t="s">
         <v>4</v>
       </c>
-      <c r="J214">
+      <c r="K214">
         <v>339</v>
       </c>
-      <c r="K214">
-        <v>1</v>
-      </c>
-      <c r="L214" t="s">
-        <v>711</v>
+      <c r="L214">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
@@ -12199,16 +12192,16 @@
         <v/>
       </c>
       <c r="I215" t="s">
+        <v>711</v>
+      </c>
+      <c r="J215" t="s">
         <v>9</v>
       </c>
-      <c r="J215">
+      <c r="K215">
         <v>378</v>
       </c>
-      <c r="K215">
-        <v>1</v>
-      </c>
-      <c r="L215" t="s">
-        <v>712</v>
+      <c r="L215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
@@ -12243,16 +12236,16 @@
         <v>270</v>
       </c>
       <c r="I216" t="s">
+        <v>712</v>
+      </c>
+      <c r="J216" t="s">
         <v>4</v>
       </c>
-      <c r="J216">
+      <c r="K216">
         <v>427</v>
       </c>
-      <c r="K216">
-        <v>1</v>
-      </c>
-      <c r="L216" t="s">
-        <v>713</v>
+      <c r="L216">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
@@ -12287,16 +12280,16 @@
         <v>154</v>
       </c>
       <c r="I217" t="s">
+        <v>713</v>
+      </c>
+      <c r="J217" t="s">
         <v>4</v>
       </c>
-      <c r="J217">
+      <c r="K217">
         <v>622</v>
       </c>
-      <c r="K217">
-        <v>1</v>
-      </c>
-      <c r="L217" t="s">
-        <v>714</v>
+      <c r="L217">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
@@ -12331,16 +12324,16 @@
         <v>3</v>
       </c>
       <c r="I218" t="s">
+        <v>714</v>
+      </c>
+      <c r="J218" t="s">
         <v>4</v>
       </c>
-      <c r="J218">
+      <c r="K218">
         <v>332</v>
       </c>
-      <c r="K218">
-        <v>1</v>
-      </c>
-      <c r="L218" t="s">
-        <v>715</v>
+      <c r="L218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
@@ -12375,16 +12368,16 @@
         <v>178</v>
       </c>
       <c r="I219" t="s">
+        <v>715</v>
+      </c>
+      <c r="J219" t="s">
         <v>4</v>
       </c>
-      <c r="J219">
+      <c r="K219">
         <v>377</v>
       </c>
-      <c r="K219">
-        <v>1</v>
-      </c>
-      <c r="L219" t="s">
-        <v>716</v>
+      <c r="L219">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
@@ -12419,16 +12412,16 @@
         <v>23</v>
       </c>
       <c r="I220" t="s">
+        <v>716</v>
+      </c>
+      <c r="J220" t="s">
         <v>4</v>
       </c>
-      <c r="J220">
+      <c r="K220">
         <v>571</v>
       </c>
-      <c r="K220">
-        <v>1</v>
-      </c>
-      <c r="L220" t="s">
-        <v>717</v>
+      <c r="L220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
@@ -12463,16 +12456,16 @@
         <v/>
       </c>
       <c r="I221" t="s">
+        <v>717</v>
+      </c>
+      <c r="J221" t="s">
         <v>16</v>
       </c>
-      <c r="J221">
+      <c r="K221">
         <v>815043</v>
       </c>
-      <c r="K221">
-        <v>1</v>
-      </c>
-      <c r="L221" t="s">
-        <v>718</v>
+      <c r="L221">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
@@ -12507,16 +12500,16 @@
         <v>155</v>
       </c>
       <c r="I222" t="s">
+        <v>718</v>
+      </c>
+      <c r="J222" t="s">
         <v>4</v>
       </c>
-      <c r="J222">
+      <c r="K222">
         <v>630</v>
       </c>
-      <c r="K222">
-        <v>1</v>
-      </c>
-      <c r="L222" t="s">
-        <v>719</v>
+      <c r="L222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
@@ -12551,16 +12544,16 @@
         <v/>
       </c>
       <c r="I223" t="s">
+        <v>719</v>
+      </c>
+      <c r="J223" t="s">
         <v>16</v>
       </c>
-      <c r="J223">
+      <c r="K223">
         <v>814831</v>
       </c>
-      <c r="K223">
-        <v>1</v>
-      </c>
-      <c r="L223" t="s">
-        <v>720</v>
+      <c r="L223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
@@ -12595,16 +12588,16 @@
         <v>61</v>
       </c>
       <c r="I224" t="s">
+        <v>720</v>
+      </c>
+      <c r="J224" t="s">
         <v>4</v>
       </c>
-      <c r="J224">
+      <c r="K224">
         <v>441</v>
       </c>
-      <c r="K224">
-        <v>1</v>
-      </c>
-      <c r="L224" t="s">
-        <v>721</v>
+      <c r="L224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
@@ -12639,16 +12632,16 @@
         <v>201</v>
       </c>
       <c r="I225" t="s">
+        <v>721</v>
+      </c>
+      <c r="J225" t="s">
         <v>4</v>
       </c>
-      <c r="J225">
+      <c r="K225">
         <v>824</v>
       </c>
-      <c r="K225">
-        <v>1</v>
-      </c>
-      <c r="L225" t="s">
-        <v>722</v>
+      <c r="L225">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
@@ -12683,16 +12676,16 @@
         <v>104</v>
       </c>
       <c r="I226" t="s">
+        <v>722</v>
+      </c>
+      <c r="J226" t="s">
         <v>4</v>
       </c>
-      <c r="J226">
+      <c r="K226">
         <v>186</v>
       </c>
-      <c r="K226">
-        <v>1</v>
-      </c>
-      <c r="L226" t="s">
-        <v>723</v>
+      <c r="L226">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
@@ -12727,16 +12720,16 @@
         <v/>
       </c>
       <c r="I227" t="s">
+        <v>723</v>
+      </c>
+      <c r="J227" t="s">
         <v>16</v>
       </c>
-      <c r="J227">
+      <c r="K227">
         <v>3244879</v>
       </c>
-      <c r="K227">
-        <v>1</v>
-      </c>
-      <c r="L227" t="s">
-        <v>724</v>
+      <c r="L227">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
@@ -12771,16 +12764,16 @@
         <v>105</v>
       </c>
       <c r="I228" t="s">
+        <v>724</v>
+      </c>
+      <c r="J228" t="s">
         <v>4</v>
       </c>
-      <c r="J228">
+      <c r="K228">
         <v>907</v>
       </c>
-      <c r="K228">
-        <v>1</v>
-      </c>
-      <c r="L228" t="s">
-        <v>725</v>
+      <c r="L228">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
@@ -12815,16 +12808,16 @@
         <v>18</v>
       </c>
       <c r="I229" t="s">
+        <v>725</v>
+      </c>
+      <c r="J229" t="s">
         <v>4</v>
       </c>
-      <c r="J229">
+      <c r="K229">
         <v>242</v>
       </c>
-      <c r="K229">
-        <v>1</v>
-      </c>
-      <c r="L229" t="s">
-        <v>726</v>
+      <c r="L229">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
@@ -12859,16 +12852,16 @@
         <v/>
       </c>
       <c r="I230" t="s">
+        <v>726</v>
+      </c>
+      <c r="J230" t="s">
         <v>34</v>
       </c>
-      <c r="J230">
+      <c r="K230">
         <v>627</v>
       </c>
-      <c r="K230">
-        <v>1</v>
-      </c>
-      <c r="L230" t="s">
-        <v>727</v>
+      <c r="L230">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
@@ -12903,16 +12896,16 @@
         <v>53</v>
       </c>
       <c r="I231" t="s">
+        <v>727</v>
+      </c>
+      <c r="J231" t="s">
         <v>4</v>
       </c>
-      <c r="J231">
+      <c r="K231">
         <v>187</v>
       </c>
-      <c r="K231">
-        <v>1</v>
-      </c>
-      <c r="L231" t="s">
-        <v>728</v>
+      <c r="L231">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
@@ -12947,16 +12940,16 @@
         <v/>
       </c>
       <c r="I232" t="s">
+        <v>728</v>
+      </c>
+      <c r="J232" t="s">
         <v>16</v>
       </c>
-      <c r="J232">
+      <c r="K232">
         <v>3173174</v>
       </c>
-      <c r="K232">
-        <v>1</v>
-      </c>
-      <c r="L232" t="s">
-        <v>729</v>
+      <c r="L232">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
@@ -12991,16 +12984,16 @@
         <v>212</v>
       </c>
       <c r="I233" t="s">
+        <v>729</v>
+      </c>
+      <c r="J233" t="s">
         <v>4</v>
       </c>
-      <c r="J233">
+      <c r="K233">
         <v>276</v>
       </c>
-      <c r="K233">
-        <v>1</v>
-      </c>
-      <c r="L233" t="s">
-        <v>730</v>
+      <c r="L233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
@@ -13035,16 +13028,16 @@
         <v>108</v>
       </c>
       <c r="I234" t="s">
+        <v>730</v>
+      </c>
+      <c r="J234" t="s">
         <v>4</v>
       </c>
-      <c r="J234">
+      <c r="K234">
         <v>520</v>
       </c>
-      <c r="K234">
-        <v>1</v>
-      </c>
-      <c r="L234" t="s">
-        <v>731</v>
+      <c r="L234">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
@@ -13079,16 +13072,16 @@
         <v/>
       </c>
       <c r="I235" t="s">
+        <v>731</v>
+      </c>
+      <c r="J235" t="s">
         <v>16</v>
       </c>
-      <c r="J235">
+      <c r="K235">
         <v>2296260</v>
       </c>
-      <c r="K235">
-        <v>1</v>
-      </c>
-      <c r="L235" t="s">
-        <v>732</v>
+      <c r="L235">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
@@ -13123,16 +13116,16 @@
         <v>177</v>
       </c>
       <c r="I236" t="s">
+        <v>732</v>
+      </c>
+      <c r="J236" t="s">
         <v>4</v>
       </c>
-      <c r="J236">
+      <c r="K236">
         <v>384</v>
       </c>
-      <c r="K236">
-        <v>1</v>
-      </c>
-      <c r="L236" t="s">
-        <v>733</v>
+      <c r="L236">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
@@ -13167,16 +13160,16 @@
         <v>51</v>
       </c>
       <c r="I237" t="s">
+        <v>733</v>
+      </c>
+      <c r="J237" t="s">
         <v>4</v>
       </c>
-      <c r="J237">
+      <c r="K237">
         <v>181</v>
       </c>
-      <c r="K237">
-        <v>1</v>
-      </c>
-      <c r="L237" t="s">
-        <v>734</v>
+      <c r="L237">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
@@ -13211,16 +13204,16 @@
         <v>52</v>
       </c>
       <c r="I238" t="s">
+        <v>734</v>
+      </c>
+      <c r="J238" t="s">
         <v>4</v>
       </c>
-      <c r="J238">
+      <c r="K238">
         <v>182</v>
       </c>
-      <c r="K238">
-        <v>1</v>
-      </c>
-      <c r="L238" t="s">
-        <v>735</v>
+      <c r="L238">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
@@ -13255,16 +13248,16 @@
         <v/>
       </c>
       <c r="I239" t="s">
+        <v>735</v>
+      </c>
+      <c r="J239" t="s">
         <v>34</v>
       </c>
-      <c r="J239">
+      <c r="K239">
         <v>645</v>
       </c>
-      <c r="K239">
-        <v>1</v>
-      </c>
-      <c r="L239" t="s">
-        <v>736</v>
+      <c r="L239">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
@@ -13299,16 +13292,16 @@
         <v>87</v>
       </c>
       <c r="I240" t="s">
+        <v>736</v>
+      </c>
+      <c r="J240" t="s">
         <v>4</v>
       </c>
-      <c r="J240">
+      <c r="K240">
         <v>906</v>
       </c>
-      <c r="K240">
-        <v>1</v>
-      </c>
-      <c r="L240" t="s">
-        <v>737</v>
+      <c r="L240">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
@@ -13343,16 +13336,16 @@
         <v>269</v>
       </c>
       <c r="I241" t="s">
+        <v>737</v>
+      </c>
+      <c r="J241" t="s">
         <v>4</v>
       </c>
-      <c r="J241">
+      <c r="K241">
         <v>434</v>
       </c>
-      <c r="K241">
-        <v>1</v>
-      </c>
-      <c r="L241" t="s">
-        <v>738</v>
+      <c r="L241">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
@@ -13387,16 +13380,16 @@
         <v>193</v>
       </c>
       <c r="I242" t="s">
+        <v>738</v>
+      </c>
+      <c r="J242" t="s">
         <v>4</v>
       </c>
-      <c r="J242">
+      <c r="K242">
         <v>370</v>
       </c>
-      <c r="K242">
-        <v>1</v>
-      </c>
-      <c r="L242" t="s">
-        <v>739</v>
+      <c r="L242">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
@@ -13431,16 +13424,16 @@
         <v>150</v>
       </c>
       <c r="I243" t="s">
+        <v>739</v>
+      </c>
+      <c r="J243" t="s">
         <v>4</v>
       </c>
-      <c r="J243">
+      <c r="K243">
         <v>620</v>
       </c>
-      <c r="K243">
-        <v>1</v>
-      </c>
-      <c r="L243" t="s">
-        <v>740</v>
+      <c r="L243">
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
@@ -13475,16 +13468,16 @@
         <v>324</v>
       </c>
       <c r="I244" t="s">
+        <v>740</v>
+      </c>
+      <c r="J244" t="s">
         <v>485</v>
       </c>
-      <c r="J244">
+      <c r="K244">
         <v>190</v>
       </c>
-      <c r="K244">
-        <v>1</v>
-      </c>
-      <c r="L244" t="s">
-        <v>741</v>
+      <c r="L244">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
@@ -13519,16 +13512,16 @@
         <v>307</v>
       </c>
       <c r="I245" t="s">
+        <v>741</v>
+      </c>
+      <c r="J245" t="s">
         <v>4</v>
       </c>
-      <c r="J245">
+      <c r="K245">
         <v>724</v>
       </c>
-      <c r="K245">
-        <v>1</v>
-      </c>
-      <c r="L245" t="s">
-        <v>742</v>
+      <c r="L245">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
@@ -13563,16 +13556,16 @@
         <v>249</v>
       </c>
       <c r="I246" t="s">
+        <v>742</v>
+      </c>
+      <c r="J246" t="s">
         <v>488</v>
       </c>
-      <c r="J246">
+      <c r="K246">
         <v>252</v>
       </c>
-      <c r="K246">
-        <v>1</v>
-      </c>
-      <c r="L246" t="s">
-        <v>743</v>
+      <c r="L246">
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
@@ -13607,16 +13600,16 @@
         <v>151</v>
       </c>
       <c r="I247" t="s">
+        <v>743</v>
+      </c>
+      <c r="J247" t="s">
         <v>4</v>
       </c>
-      <c r="J247">
+      <c r="K247">
         <v>626</v>
       </c>
-      <c r="K247">
-        <v>1</v>
-      </c>
-      <c r="L247" t="s">
-        <v>744</v>
+      <c r="L247">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
@@ -13651,16 +13644,16 @@
         <v/>
       </c>
       <c r="I248" t="s">
+        <v>744</v>
+      </c>
+      <c r="J248" t="s">
         <v>16</v>
       </c>
-      <c r="J248">
+      <c r="K248">
         <v>814904</v>
       </c>
-      <c r="K248">
-        <v>1</v>
-      </c>
-      <c r="L248" t="s">
-        <v>745</v>
+      <c r="L248">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
@@ -13695,16 +13688,16 @@
         <v>273</v>
       </c>
       <c r="I249" t="s">
+        <v>745</v>
+      </c>
+      <c r="J249" t="s">
         <v>4</v>
       </c>
-      <c r="J249">
+      <c r="K249">
         <v>429</v>
       </c>
-      <c r="K249">
-        <v>1</v>
-      </c>
-      <c r="L249" t="s">
-        <v>746</v>
+      <c r="L249">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
@@ -13739,16 +13732,16 @@
         <v>323</v>
       </c>
       <c r="I250" t="s">
+        <v>746</v>
+      </c>
+      <c r="J250" t="s">
         <v>4</v>
       </c>
-      <c r="J250">
+      <c r="K250">
         <v>196</v>
       </c>
-      <c r="K250">
-        <v>1</v>
-      </c>
-      <c r="L250" t="s">
-        <v>747</v>
+      <c r="L250">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
@@ -13783,16 +13776,16 @@
         <v>138</v>
       </c>
       <c r="I251" t="s">
+        <v>747</v>
+      </c>
+      <c r="J251" t="s">
         <v>4</v>
       </c>
-      <c r="J251">
+      <c r="K251">
         <v>257</v>
       </c>
-      <c r="K251">
-        <v>1</v>
-      </c>
-      <c r="L251" t="s">
-        <v>748</v>
+      <c r="L251">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
@@ -13827,16 +13820,16 @@
         <v>268</v>
       </c>
       <c r="I252" t="s">
+        <v>748</v>
+      </c>
+      <c r="J252" t="s">
         <v>4</v>
       </c>
-      <c r="J252">
+      <c r="K252">
         <v>432</v>
       </c>
-      <c r="K252">
-        <v>1</v>
-      </c>
-      <c r="L252" t="s">
-        <v>749</v>
+      <c r="L252">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
@@ -13871,16 +13864,16 @@
         <v>8</v>
       </c>
       <c r="I253" t="s">
+        <v>749</v>
+      </c>
+      <c r="J253" t="s">
         <v>4</v>
       </c>
-      <c r="J253">
+      <c r="K253">
         <v>321</v>
       </c>
-      <c r="K253">
-        <v>1</v>
-      </c>
-      <c r="L253" t="s">
-        <v>750</v>
+      <c r="L253">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
@@ -13915,16 +13908,16 @@
         <v>31</v>
       </c>
       <c r="I254" t="s">
+        <v>750</v>
+      </c>
+      <c r="J254" t="s">
         <v>4</v>
       </c>
-      <c r="J254">
+      <c r="K254">
         <v>337</v>
       </c>
-      <c r="K254">
-        <v>1</v>
-      </c>
-      <c r="L254" t="s">
-        <v>751</v>
+      <c r="L254">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
@@ -13959,16 +13952,16 @@
         <v>4</v>
       </c>
       <c r="I255" t="s">
+        <v>751</v>
+      </c>
+      <c r="J255" t="s">
         <v>4</v>
       </c>
-      <c r="J255">
+      <c r="K255">
         <v>327</v>
       </c>
-      <c r="K255">
-        <v>1</v>
-      </c>
-      <c r="L255" t="s">
-        <v>752</v>
+      <c r="L255">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
@@ -14003,16 +13996,16 @@
         <v>276</v>
       </c>
       <c r="I256" t="s">
+        <v>752</v>
+      </c>
+      <c r="J256" t="s">
         <v>4</v>
       </c>
-      <c r="J256">
+      <c r="K256">
         <v>443</v>
       </c>
-      <c r="K256">
-        <v>1</v>
-      </c>
-      <c r="L256" t="s">
-        <v>753</v>
+      <c r="L256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
@@ -14047,16 +14040,16 @@
         <v>215</v>
       </c>
       <c r="I257" t="s">
+        <v>753</v>
+      </c>
+      <c r="J257" t="s">
         <v>4</v>
       </c>
-      <c r="J257">
+      <c r="K257">
         <v>277</v>
       </c>
-      <c r="K257">
-        <v>1</v>
-      </c>
-      <c r="L257" t="s">
-        <v>754</v>
+      <c r="L257">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
@@ -14091,16 +14084,16 @@
         <v/>
       </c>
       <c r="I258" t="s">
+        <v>754</v>
+      </c>
+      <c r="J258" t="s">
         <v>9</v>
       </c>
-      <c r="J258">
+      <c r="K258">
         <v>929</v>
       </c>
-      <c r="K258">
-        <v>1</v>
-      </c>
-      <c r="L258" t="s">
-        <v>755</v>
+      <c r="L258">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
@@ -14135,16 +14128,16 @@
         <v>62</v>
       </c>
       <c r="I259" t="s">
+        <v>755</v>
+      </c>
+      <c r="J259" t="s">
         <v>4</v>
       </c>
-      <c r="J259">
+      <c r="K259">
         <v>877</v>
       </c>
-      <c r="K259">
-        <v>1</v>
-      </c>
-      <c r="L259" t="s">
-        <v>756</v>
+      <c r="L259">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
@@ -14179,16 +14172,16 @@
         <v>71</v>
       </c>
       <c r="I260" t="s">
+        <v>756</v>
+      </c>
+      <c r="J260" t="s">
         <v>9</v>
       </c>
-      <c r="J260">
+      <c r="K260">
         <v>689</v>
       </c>
-      <c r="K260">
-        <v>1</v>
-      </c>
-      <c r="L260" t="s">
-        <v>757</v>
+      <c r="L260">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
@@ -14223,16 +14216,16 @@
         <v>73</v>
       </c>
       <c r="I261" t="s">
+        <v>757</v>
+      </c>
+      <c r="J261" t="s">
         <v>34</v>
       </c>
-      <c r="J261">
+      <c r="K261">
         <v>139</v>
       </c>
-      <c r="K261">
-        <v>1</v>
-      </c>
-      <c r="L261" t="s">
-        <v>758</v>
+      <c r="L261">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
@@ -14240,7 +14233,7 @@
         <v>321</v>
       </c>
       <c r="B262" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C262" t="str">
         <f>IF(ISNA(VLOOKUP($A262,KT!$A:$B,2,FALSE)),"",VLOOKUP($A262,KT!$A:$B,2,FALSE))</f>
@@ -14251,7 +14244,7 @@
         <v/>
       </c>
       <c r="E262" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F262">
         <f>IF(ISNA(VLOOKUP($A262,LG!$A:$C,3,FALSE)),"",VLOOKUP($A262,LG!$A:$C,3,FALSE))</f>
@@ -14266,16 +14259,16 @@
         <v/>
       </c>
       <c r="I262" t="s">
+        <v>758</v>
+      </c>
+      <c r="J262" t="s">
         <v>268</v>
       </c>
-      <c r="J262">
+      <c r="K262">
         <v>669</v>
       </c>
-      <c r="K262">
-        <v>1</v>
-      </c>
-      <c r="L262" t="s">
-        <v>759</v>
+      <c r="L262">
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
@@ -14310,16 +14303,16 @@
         <v>5</v>
       </c>
       <c r="I263" t="s">
+        <v>759</v>
+      </c>
+      <c r="J263" t="s">
         <v>4</v>
       </c>
-      <c r="J263">
+      <c r="K263">
         <v>33</v>
       </c>
-      <c r="K263">
+      <c r="L263">
         <v>0</v>
-      </c>
-      <c r="L263" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
@@ -14354,16 +14347,16 @@
         <v>5</v>
       </c>
       <c r="I264" t="s">
+        <v>760</v>
+      </c>
+      <c r="J264" t="s">
         <v>4</v>
       </c>
-      <c r="J264">
+      <c r="K264">
         <v>44</v>
       </c>
-      <c r="K264">
+      <c r="L264">
         <v>0</v>
-      </c>
-      <c r="L264" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
@@ -14398,16 +14391,16 @@
         <v>5</v>
       </c>
       <c r="I265" t="s">
+        <v>761</v>
+      </c>
+      <c r="J265" t="s">
         <v>4</v>
       </c>
-      <c r="J265">
+      <c r="K265">
         <v>62</v>
       </c>
-      <c r="K265">
+      <c r="L265">
         <v>0</v>
-      </c>
-      <c r="L265" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
@@ -14442,16 +14435,16 @@
         <v>5</v>
       </c>
       <c r="I266" t="s">
+        <v>762</v>
+      </c>
+      <c r="J266" t="s">
         <v>4</v>
       </c>
-      <c r="J266">
+      <c r="K266">
         <v>36</v>
       </c>
-      <c r="K266">
+      <c r="L266">
         <v>0</v>
-      </c>
-      <c r="L266" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
@@ -14486,16 +14479,16 @@
         <v>5</v>
       </c>
       <c r="I267" t="s">
+        <v>763</v>
+      </c>
+      <c r="J267" t="s">
         <v>4</v>
       </c>
-      <c r="J267">
+      <c r="K267">
         <v>27</v>
       </c>
-      <c r="K267">
+      <c r="L267">
         <v>0</v>
-      </c>
-      <c r="L267" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
@@ -14530,16 +14523,16 @@
         <v>5</v>
       </c>
       <c r="I268" t="s">
+        <v>764</v>
+      </c>
+      <c r="J268" t="s">
         <v>4</v>
       </c>
-      <c r="J268">
+      <c r="K268">
         <v>18</v>
       </c>
-      <c r="K268">
+      <c r="L268">
         <v>0</v>
-      </c>
-      <c r="L268" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
@@ -14574,16 +14567,16 @@
         <v>5</v>
       </c>
       <c r="I269" t="s">
+        <v>765</v>
+      </c>
+      <c r="J269" t="s">
         <v>4</v>
       </c>
-      <c r="J269">
+      <c r="K269">
         <v>21</v>
       </c>
-      <c r="K269">
+      <c r="L269">
         <v>0</v>
-      </c>
-      <c r="L269" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
@@ -14618,16 +14611,16 @@
         <v>5</v>
       </c>
       <c r="I270" t="s">
+        <v>766</v>
+      </c>
+      <c r="J270" t="s">
         <v>4</v>
       </c>
-      <c r="J270">
+      <c r="K270">
         <v>24</v>
       </c>
-      <c r="K270">
+      <c r="L270">
         <v>0</v>
-      </c>
-      <c r="L270" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
@@ -14662,16 +14655,16 @@
         <v>5</v>
       </c>
       <c r="I271" t="s">
+        <v>767</v>
+      </c>
+      <c r="J271" t="s">
         <v>4</v>
       </c>
-      <c r="J271">
+      <c r="K271">
         <v>30</v>
       </c>
-      <c r="K271">
+      <c r="L271">
         <v>0</v>
-      </c>
-      <c r="L271" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
@@ -14706,16 +14699,16 @@
         <v>9</v>
       </c>
       <c r="I272" t="s">
+        <v>588</v>
+      </c>
+      <c r="J272" t="s">
         <v>4</v>
       </c>
-      <c r="J272">
+      <c r="K272">
         <v>39</v>
       </c>
-      <c r="K272">
+      <c r="L272">
         <v>0</v>
-      </c>
-      <c r="L272" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -14750,16 +14743,16 @@
         <v>11</v>
       </c>
       <c r="I273" t="s">
+        <v>597</v>
+      </c>
+      <c r="J273" t="s">
         <v>4</v>
       </c>
-      <c r="J273">
+      <c r="K273">
         <v>40</v>
       </c>
-      <c r="K273">
+      <c r="L273">
         <v>0</v>
-      </c>
-      <c r="L273" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -14794,16 +14787,16 @@
         <v>9</v>
       </c>
       <c r="I274" t="s">
+        <v>588</v>
+      </c>
+      <c r="J274" t="s">
         <v>4</v>
       </c>
-      <c r="J274">
+      <c r="K274">
         <v>59</v>
       </c>
-      <c r="K274">
+      <c r="L274">
         <v>0</v>
-      </c>
-      <c r="L274" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -14838,16 +14831,16 @@
         <v>9</v>
       </c>
       <c r="I275" t="s">
+        <v>588</v>
+      </c>
+      <c r="J275" t="s">
         <v>4</v>
       </c>
-      <c r="J275">
+      <c r="K275">
         <v>25</v>
       </c>
-      <c r="K275">
+      <c r="L275">
         <v>0</v>
-      </c>
-      <c r="L275" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -14882,16 +14875,16 @@
         <v>11</v>
       </c>
       <c r="I276" t="s">
+        <v>597</v>
+      </c>
+      <c r="J276" t="s">
         <v>4</v>
       </c>
-      <c r="J276">
+      <c r="K276">
         <v>26</v>
       </c>
-      <c r="K276">
+      <c r="L276">
         <v>0</v>
-      </c>
-      <c r="L276" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -14926,16 +14919,16 @@
         <v>9</v>
       </c>
       <c r="I277" t="s">
+        <v>588</v>
+      </c>
+      <c r="J277" t="s">
         <v>4</v>
       </c>
-      <c r="J277">
+      <c r="K277">
         <v>19</v>
       </c>
-      <c r="K277">
+      <c r="L277">
         <v>0</v>
-      </c>
-      <c r="L277" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -14970,16 +14963,16 @@
         <v>11</v>
       </c>
       <c r="I278" t="s">
+        <v>597</v>
+      </c>
+      <c r="J278" t="s">
         <v>4</v>
       </c>
-      <c r="J278">
+      <c r="K278">
         <v>20</v>
       </c>
-      <c r="K278">
+      <c r="L278">
         <v>0</v>
-      </c>
-      <c r="L278" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -15014,16 +15007,16 @@
         <v>9</v>
       </c>
       <c r="I279" t="s">
+        <v>588</v>
+      </c>
+      <c r="J279" t="s">
         <v>4</v>
       </c>
-      <c r="J279">
+      <c r="K279">
         <v>22</v>
       </c>
-      <c r="K279">
+      <c r="L279">
         <v>0</v>
-      </c>
-      <c r="L279" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -15058,16 +15051,16 @@
         <v>11</v>
       </c>
       <c r="I280" t="s">
+        <v>597</v>
+      </c>
+      <c r="J280" t="s">
         <v>4</v>
       </c>
-      <c r="J280">
+      <c r="K280">
         <v>23</v>
       </c>
-      <c r="K280">
+      <c r="L280">
         <v>0</v>
-      </c>
-      <c r="L280" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -15102,16 +15095,16 @@
         <v>9</v>
       </c>
       <c r="I281" t="s">
+        <v>588</v>
+      </c>
+      <c r="J281" t="s">
         <v>4</v>
       </c>
-      <c r="J281">
+      <c r="K281">
         <v>55</v>
       </c>
-      <c r="K281">
+      <c r="L281">
         <v>0</v>
-      </c>
-      <c r="L281" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -15146,16 +15139,16 @@
         <v>11</v>
       </c>
       <c r="I282" t="s">
+        <v>597</v>
+      </c>
+      <c r="J282" t="s">
         <v>4</v>
       </c>
-      <c r="J282">
+      <c r="K282">
         <v>56</v>
       </c>
-      <c r="K282">
+      <c r="L282">
         <v>0</v>
-      </c>
-      <c r="L282" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -15190,16 +15183,16 @@
         <v>9</v>
       </c>
       <c r="I283" t="s">
+        <v>588</v>
+      </c>
+      <c r="J283" t="s">
         <v>4</v>
       </c>
-      <c r="J283">
+      <c r="K283">
         <v>16</v>
       </c>
-      <c r="K283">
+      <c r="L283">
         <v>0</v>
-      </c>
-      <c r="L283" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -15234,16 +15227,16 @@
         <v>11</v>
       </c>
       <c r="I284" t="s">
+        <v>597</v>
+      </c>
+      <c r="J284" t="s">
         <v>4</v>
       </c>
-      <c r="J284">
+      <c r="K284">
         <v>17</v>
       </c>
-      <c r="K284">
+      <c r="L284">
         <v>0</v>
-      </c>
-      <c r="L284" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -15278,16 +15271,16 @@
         <v>11</v>
       </c>
       <c r="I285" t="s">
+        <v>597</v>
+      </c>
+      <c r="J285" t="s">
         <v>4</v>
       </c>
-      <c r="J285">
+      <c r="K285">
         <v>41</v>
       </c>
-      <c r="K285">
+      <c r="L285">
         <v>0</v>
-      </c>
-      <c r="L285" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -15322,16 +15315,16 @@
         <v>9</v>
       </c>
       <c r="I286" t="s">
+        <v>588</v>
+      </c>
+      <c r="J286" t="s">
         <v>4</v>
       </c>
-      <c r="J286">
+      <c r="K286">
         <v>57</v>
       </c>
-      <c r="K286">
+      <c r="L286">
         <v>0</v>
-      </c>
-      <c r="L286" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -15366,16 +15359,16 @@
         <v>9</v>
       </c>
       <c r="I287" t="s">
+        <v>588</v>
+      </c>
+      <c r="J287" t="s">
         <v>4</v>
       </c>
-      <c r="J287">
+      <c r="K287">
         <v>49</v>
       </c>
-      <c r="K287">
+      <c r="L287">
         <v>0</v>
-      </c>
-      <c r="L287" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -15410,16 +15403,16 @@
         <v>11</v>
       </c>
       <c r="I288" t="s">
+        <v>597</v>
+      </c>
+      <c r="J288" t="s">
         <v>4</v>
       </c>
-      <c r="J288">
+      <c r="K288">
         <v>50</v>
       </c>
-      <c r="K288">
+      <c r="L288">
         <v>0</v>
-      </c>
-      <c r="L288" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -15454,16 +15447,16 @@
         <v>11</v>
       </c>
       <c r="I289" t="s">
+        <v>597</v>
+      </c>
+      <c r="J289" t="s">
         <v>4</v>
       </c>
-      <c r="J289">
+      <c r="K289">
         <v>58</v>
       </c>
-      <c r="K289">
+      <c r="L289">
         <v>0</v>
-      </c>
-      <c r="L289" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
@@ -15498,16 +15491,16 @@
         <v>9</v>
       </c>
       <c r="I290" t="s">
+        <v>588</v>
+      </c>
+      <c r="J290" t="s">
         <v>4</v>
       </c>
-      <c r="J290">
+      <c r="K290">
         <v>28</v>
       </c>
-      <c r="K290">
+      <c r="L290">
         <v>0</v>
-      </c>
-      <c r="L290" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
@@ -15542,16 +15535,16 @@
         <v>11</v>
       </c>
       <c r="I291" t="s">
+        <v>597</v>
+      </c>
+      <c r="J291" t="s">
         <v>4</v>
       </c>
-      <c r="J291">
+      <c r="K291">
         <v>29</v>
       </c>
-      <c r="K291">
+      <c r="L291">
         <v>0</v>
-      </c>
-      <c r="L291" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
@@ -15586,16 +15579,16 @@
         <v>9</v>
       </c>
       <c r="I292" t="s">
+        <v>588</v>
+      </c>
+      <c r="J292" t="s">
         <v>4</v>
       </c>
-      <c r="J292">
+      <c r="K292">
         <v>42</v>
       </c>
-      <c r="K292">
+      <c r="L292">
         <v>0</v>
-      </c>
-      <c r="L292" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
@@ -15630,16 +15623,16 @@
         <v>11</v>
       </c>
       <c r="I293" t="s">
+        <v>597</v>
+      </c>
+      <c r="J293" t="s">
         <v>4</v>
       </c>
-      <c r="J293">
+      <c r="K293">
         <v>43</v>
       </c>
-      <c r="K293">
+      <c r="L293">
         <v>0</v>
-      </c>
-      <c r="L293" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -15674,16 +15667,16 @@
         <v>9</v>
       </c>
       <c r="I294" t="s">
+        <v>588</v>
+      </c>
+      <c r="J294" t="s">
         <v>4</v>
       </c>
-      <c r="J294">
+      <c r="K294">
         <v>34</v>
       </c>
-      <c r="K294">
+      <c r="L294">
         <v>0</v>
-      </c>
-      <c r="L294" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
@@ -15718,16 +15711,16 @@
         <v>11</v>
       </c>
       <c r="I295" t="s">
+        <v>597</v>
+      </c>
+      <c r="J295" t="s">
         <v>4</v>
       </c>
-      <c r="J295">
+      <c r="K295">
         <v>35</v>
       </c>
-      <c r="K295">
+      <c r="L295">
         <v>0</v>
-      </c>
-      <c r="L295" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
@@ -15762,16 +15755,16 @@
         <v>9</v>
       </c>
       <c r="I296" t="s">
+        <v>588</v>
+      </c>
+      <c r="J296" t="s">
         <v>4</v>
       </c>
-      <c r="J296">
+      <c r="K296">
         <v>60</v>
       </c>
-      <c r="K296">
+      <c r="L296">
         <v>0</v>
-      </c>
-      <c r="L296" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -15806,16 +15799,16 @@
         <v>11</v>
       </c>
       <c r="I297" t="s">
+        <v>597</v>
+      </c>
+      <c r="J297" t="s">
         <v>4</v>
       </c>
-      <c r="J297">
+      <c r="K297">
         <v>61</v>
       </c>
-      <c r="K297">
+      <c r="L297">
         <v>0</v>
-      </c>
-      <c r="L297" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
@@ -15850,16 +15843,16 @@
         <v>9</v>
       </c>
       <c r="I298" t="s">
+        <v>588</v>
+      </c>
+      <c r="J298" t="s">
         <v>4</v>
       </c>
-      <c r="J298">
+      <c r="K298">
         <v>51</v>
       </c>
-      <c r="K298">
+      <c r="L298">
         <v>0</v>
-      </c>
-      <c r="L298" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
@@ -15894,16 +15887,16 @@
         <v>11</v>
       </c>
       <c r="I299" t="s">
+        <v>597</v>
+      </c>
+      <c r="J299" t="s">
         <v>4</v>
       </c>
-      <c r="J299">
+      <c r="K299">
         <v>52</v>
       </c>
-      <c r="K299">
+      <c r="L299">
         <v>0</v>
-      </c>
-      <c r="L299" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
@@ -15938,16 +15931,16 @@
         <v>9</v>
       </c>
       <c r="I300" t="s">
+        <v>588</v>
+      </c>
+      <c r="J300" t="s">
         <v>4</v>
       </c>
-      <c r="J300">
+      <c r="K300">
         <v>53</v>
       </c>
-      <c r="K300">
+      <c r="L300">
         <v>0</v>
-      </c>
-      <c r="L300" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
@@ -15982,16 +15975,16 @@
         <v>9</v>
       </c>
       <c r="I301" t="s">
+        <v>588</v>
+      </c>
+      <c r="J301" t="s">
         <v>4</v>
       </c>
-      <c r="J301">
+      <c r="K301">
         <v>31</v>
       </c>
-      <c r="K301">
+      <c r="L301">
         <v>0</v>
-      </c>
-      <c r="L301" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
@@ -16026,16 +16019,16 @@
         <v>11</v>
       </c>
       <c r="I302" t="s">
+        <v>597</v>
+      </c>
+      <c r="J302" t="s">
         <v>4</v>
       </c>
-      <c r="J302">
+      <c r="K302">
         <v>32</v>
       </c>
-      <c r="K302">
+      <c r="L302">
         <v>0</v>
-      </c>
-      <c r="L302" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
@@ -16070,16 +16063,16 @@
         <v>9</v>
       </c>
       <c r="I303" t="s">
+        <v>588</v>
+      </c>
+      <c r="J303" t="s">
         <v>4</v>
       </c>
-      <c r="J303">
+      <c r="K303">
         <v>37</v>
       </c>
-      <c r="K303">
+      <c r="L303">
         <v>0</v>
-      </c>
-      <c r="L303" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
@@ -16114,16 +16107,16 @@
         <v>11</v>
       </c>
       <c r="I304" t="s">
+        <v>597</v>
+      </c>
+      <c r="J304" t="s">
         <v>4</v>
       </c>
-      <c r="J304">
+      <c r="K304">
         <v>38</v>
       </c>
-      <c r="K304">
+      <c r="L304">
         <v>0</v>
-      </c>
-      <c r="L304" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
@@ -16158,16 +16151,16 @@
         <v>9</v>
       </c>
       <c r="I305" t="s">
+        <v>588</v>
+      </c>
+      <c r="J305" t="s">
         <v>4</v>
       </c>
-      <c r="J305">
+      <c r="K305">
         <v>45</v>
       </c>
-      <c r="K305">
+      <c r="L305">
         <v>0</v>
-      </c>
-      <c r="L305" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -16202,16 +16195,16 @@
         <v>11</v>
       </c>
       <c r="I306" t="s">
+        <v>597</v>
+      </c>
+      <c r="J306" t="s">
         <v>4</v>
       </c>
-      <c r="J306">
+      <c r="K306">
         <v>46</v>
       </c>
-      <c r="K306">
+      <c r="L306">
         <v>0</v>
-      </c>
-      <c r="L306" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
@@ -16246,16 +16239,16 @@
         <v>9</v>
       </c>
       <c r="I307" t="s">
+        <v>588</v>
+      </c>
+      <c r="J307" t="s">
         <v>4</v>
       </c>
-      <c r="J307">
+      <c r="K307">
         <v>47</v>
       </c>
-      <c r="K307">
+      <c r="L307">
         <v>0</v>
-      </c>
-      <c r="L307" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
@@ -16290,16 +16283,16 @@
         <v>11</v>
       </c>
       <c r="I308" t="s">
+        <v>597</v>
+      </c>
+      <c r="J308" t="s">
         <v>4</v>
       </c>
-      <c r="J308">
+      <c r="K308">
         <v>48</v>
       </c>
-      <c r="K308">
+      <c r="L308">
         <v>0</v>
-      </c>
-      <c r="L308" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
@@ -16334,16 +16327,16 @@
         <v>96</v>
       </c>
       <c r="I309" t="s">
+        <v>768</v>
+      </c>
+      <c r="J309" t="s">
         <v>484</v>
       </c>
-      <c r="J309">
+      <c r="K309">
         <v>180</v>
       </c>
-      <c r="K309">
-        <v>1</v>
-      </c>
-      <c r="L309" t="s">
-        <v>769</v>
+      <c r="L309">
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
@@ -16378,16 +16371,16 @@
         <v/>
       </c>
       <c r="I310" t="s">
+        <v>769</v>
+      </c>
+      <c r="J310" t="s">
         <v>487</v>
       </c>
-      <c r="J310">
+      <c r="K310">
         <v>254</v>
       </c>
-      <c r="K310">
-        <v>1</v>
-      </c>
-      <c r="L310" t="s">
-        <v>770</v>
+      <c r="L310">
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
@@ -16422,16 +16415,16 @@
         <v>161</v>
       </c>
       <c r="I311" t="s">
+        <v>770</v>
+      </c>
+      <c r="J311" t="s">
         <v>485</v>
       </c>
-      <c r="J311">
+      <c r="K311">
         <v>771</v>
       </c>
-      <c r="K311">
-        <v>1</v>
-      </c>
-      <c r="L311" t="s">
-        <v>771</v>
+      <c r="L311">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -16466,16 +16459,16 @@
         <v>237</v>
       </c>
       <c r="I312" t="s">
+        <v>771</v>
+      </c>
+      <c r="J312" t="s">
         <v>486</v>
       </c>
-      <c r="J312">
+      <c r="K312">
         <v>672</v>
       </c>
-      <c r="K312">
-        <v>1</v>
-      </c>
-      <c r="L312" t="s">
-        <v>772</v>
+      <c r="L312">
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
@@ -16510,20 +16503,20 @@
         <v>250</v>
       </c>
       <c r="I313" t="s">
+        <v>772</v>
+      </c>
+      <c r="J313" t="s">
         <v>485</v>
       </c>
-      <c r="J313">
+      <c r="K313">
         <v>260</v>
       </c>
-      <c r="K313">
-        <v>1</v>
-      </c>
-      <c r="L313" t="s">
-        <v>773</v>
+      <c r="L313">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K313">
+  <autoFilter ref="A1:L313">
     <sortState ref="A2:H313">
       <sortCondition ref="A1"/>
     </sortState>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="779">
   <si>
     <t>KTCh</t>
   </si>
@@ -2391,6 +2391,24 @@
   <si>
     <t>Icon_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPOTV ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPOTV ON2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑엔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.imgur.com/Y3eYOc2.png</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/jbdurz4.png</t>
   </si>
 </sst>
 </file>
@@ -2734,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L313"/>
+  <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C319" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12081,7 +12099,7 @@
       </c>
       <c r="C213" t="str">
         <f>IF(ISNA(VLOOKUP($A213,KT!$A:$B,2,FALSE)),"",VLOOKUP($A213,KT!$A:$B,2,FALSE))</f>
-        <v>쇼핑엔T</v>
+        <v>쇼핑엔티</v>
       </c>
       <c r="D213">
         <f>IF(ISNA(VLOOKUP($A213,KT!$A:$C,3,FALSE)),"",VLOOKUP($A213,KT!$A:$C,3,FALSE))</f>
@@ -16512,6 +16530,94 @@
         <v>260</v>
       </c>
       <c r="L313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>414</v>
+      </c>
+      <c r="B314" t="s">
+        <v>774</v>
+      </c>
+      <c r="C314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,KT!$A:$B,2,FALSE)),"",VLOOKUP($A314,KT!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,KT!$A:$C,3,FALSE)),"",VLOOKUP($A314,KT!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,LG!$A:$B,2,FALSE)),"",VLOOKUP($A314,LG!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,LG!$A:$C,3,FALSE)),"",VLOOKUP($A314,LG!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,SK!$A:$B,2,FALSE)),"",VLOOKUP($A314,SK!$A:$B,2,FALSE))</f>
+        <v>SPOTV ON</v>
+      </c>
+      <c r="H314">
+        <f>IF(ISNA(VLOOKUP($A314,SK!$A:$C,3,FALSE)),"",VLOOKUP($A314,SK!$A:$C,3,FALSE))</f>
+        <v>118</v>
+      </c>
+      <c r="I314" t="s">
+        <v>777</v>
+      </c>
+      <c r="J314" t="s">
+        <v>485</v>
+      </c>
+      <c r="K314">
+        <v>136</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>415</v>
+      </c>
+      <c r="B315" t="s">
+        <v>775</v>
+      </c>
+      <c r="C315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,KT!$A:$B,2,FALSE)),"",VLOOKUP($A315,KT!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,KT!$A:$C,3,FALSE)),"",VLOOKUP($A315,KT!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,LG!$A:$B,2,FALSE)),"",VLOOKUP($A315,LG!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,LG!$A:$C,3,FALSE)),"",VLOOKUP($A315,LG!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,SK!$A:$B,2,FALSE)),"",VLOOKUP($A315,SK!$A:$B,2,FALSE))</f>
+        <v>SPOTV ON2</v>
+      </c>
+      <c r="H315">
+        <f>IF(ISNA(VLOOKUP($A315,SK!$A:$C,3,FALSE)),"",VLOOKUP($A315,SK!$A:$C,3,FALSE))</f>
+        <v>119</v>
+      </c>
+      <c r="I315" t="s">
+        <v>778</v>
+      </c>
+      <c r="J315" t="s">
+        <v>485</v>
+      </c>
+      <c r="K315">
+        <v>137</v>
+      </c>
+      <c r="L315">
         <v>1</v>
       </c>
     </row>
@@ -16531,8 +16637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244:B289"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A199" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16553,3209 +16659,3209 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="C2">
-        <v>163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="C5">
-        <v>133</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>362</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="C9">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="C10">
-        <v>258</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="C11">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="C13">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C15">
-        <v>192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C16">
-        <v>232</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C18">
-        <v>196</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="C19">
-        <v>264</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>23</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="C20">
-        <v>233</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>24</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="C21">
-        <v>235</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="C22">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>27</v>
+        <v>379</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="C23">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>28</v>
+        <v>381</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="C24">
-        <v>238</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="C25">
-        <v>280</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>32</v>
+        <v>386</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="C26">
-        <v>237</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>34</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="C27">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="C28">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>39</v>
+        <v>392</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="C29">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>43</v>
+        <v>400</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C33">
-        <v>126</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="C34">
-        <v>262</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="C35">
-        <v>197</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="C36">
-        <v>191</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>48</v>
+        <v>407</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="C37">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="C38">
-        <v>236</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C39">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>52</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="C40">
-        <v>201</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>53</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="C41">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="C42">
-        <v>257</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>55</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>56</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c r="C44">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>57</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="C45">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="C46">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="C47">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>60</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>61</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="C49">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>62</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="C50">
-        <v>127</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>63</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="C51">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>67</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="C52">
-        <v>193</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>70</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="C53">
-        <v>173</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>72</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="C54">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="C55">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="C56">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="C57">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="C58">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C59">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="C60">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C61">
-        <v>234</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C62">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="C64">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="C65">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C66">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C67">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="C68">
-        <v>275</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="C69">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="C70">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>144</v>
       </c>
       <c r="C71">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C72">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C73">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="C75">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C76">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>776</v>
       </c>
       <c r="C77">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C78">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>103</v>
+        <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="C79">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
+        <v>132</v>
       </c>
       <c r="C80">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C81">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="C82">
-        <v>281</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="C83">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C84">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>338</v>
       </c>
       <c r="C87">
-        <v>153</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C88">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C89">
-        <v>230</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="C90">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>341</v>
       </c>
       <c r="C91">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="C92">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C93">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C96">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="C97">
-        <v>164</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C98">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="C99">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="C100">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C102">
-        <v>272</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C103">
-        <v>117</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C104">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="C105">
-        <v>181</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C106">
-        <v>171</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C107">
-        <v>170</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C108">
-        <v>168</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C109">
-        <v>199</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C110">
-        <v>136</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="C111">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="C112">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>28</v>
       </c>
       <c r="C114">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="C115">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C116">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="C117">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="C118">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="C119">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C120">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C121">
-        <v>160</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="C122">
-        <v>247</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="C123">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C125">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="C126">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="C127">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="C128">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="C129">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C130">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="C131">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="C132">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="C133">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C134">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="C135">
-        <v>167</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C136">
-        <v>165</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C137">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C138">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="B139" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C140">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C141">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>342</v>
+        <v>33</v>
       </c>
       <c r="C142">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C143">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C144">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="C145">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="C146">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C147">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C148">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C149">
-        <v>261</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C150">
-        <v>267</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="B151" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="C151">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="C152">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="C153">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="C154">
-        <v>214</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="C155">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="C156">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="C157">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C158">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C159">
-        <v>251</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>198</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C161">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="C162">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="C163">
-        <v>245</v>
+        <v>119</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C164">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="B165" t="s">
-        <v>344</v>
+        <v>108</v>
       </c>
       <c r="C165">
-        <v>284</v>
+        <v>121</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="C166">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C167">
-        <v>24</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B168" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C168">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B169" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="C169">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="B170" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="C170">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="B171" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="C171">
-        <v>260</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="B172" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="C172">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="B173" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="C173">
-        <v>285</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B174" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C174">
-        <v>283</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="B175" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="C175">
-        <v>256</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B176" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C176">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="C177">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="C178">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="C179">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="B180" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="C180">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="B181" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="C181">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="B182" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C182">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C183">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C184">
-        <v>44</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="C185">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c r="C186">
-        <v>276</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="C187">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="C188">
-        <v>246</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="B189" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C189">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="B190" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="C190">
-        <v>213</v>
+        <v>149</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B191" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C191">
-        <v>219</v>
+        <v>151</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="C192">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="B193" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="C193">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="B194" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="C194">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B195" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C195">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="B196" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="C196">
-        <v>278</v>
+        <v>156</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="B197" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="C197">
-        <v>282</v>
+        <v>157</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="C198">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="B199" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="C199">
-        <v>265</v>
+        <v>159</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="B200" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="C200">
-        <v>255</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="C201">
-        <v>31</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="B202" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="C202">
-        <v>28</v>
+        <v>164</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="B203" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C203">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="B204" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="C204">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="B205" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="C205">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="B206" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="C206">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="B207" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="C207">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="B208" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="C208">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="B209" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="C209">
-        <v>217</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="C210">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="B211" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="C211">
-        <v>263</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="B212" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="C212">
-        <v>277</v>
+        <v>174</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="C213">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B214" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C214">
-        <v>110</v>
+        <v>176</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>279</v>
+        <v>51</v>
       </c>
       <c r="B215" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="C215">
-        <v>279</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="B216" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="C216">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B217" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C217">
-        <v>268</v>
+        <v>180</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="B218" t="s">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="C218">
-        <v>29</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="B219" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="C219">
-        <v>250</v>
+        <v>182</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C220">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="B221" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C221">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B222" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C222">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B223" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C223">
-        <v>137</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="B224" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="C224">
-        <v>66</v>
+        <v>187</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="B225" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C225">
-        <v>67</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c r="B226" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="C226">
-        <v>270</v>
+        <v>191</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="B227" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="C227">
-        <v>85</v>
+        <v>192</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="B228" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="C228">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>296</v>
+        <v>411</v>
       </c>
       <c r="B229" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="C229">
-        <v>148</v>
+        <v>194</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="B230" t="s">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="C230">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>299</v>
+        <v>21</v>
       </c>
       <c r="B231" t="s">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="C231">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="B232" t="s">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="C232">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="B233" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="C233">
-        <v>129</v>
+        <v>198</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="B234" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="C234">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="B235" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="C235">
-        <v>259</v>
+        <v>201</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="C236">
-        <v>252</v>
+        <v>202</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B237" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C237">
-        <v>248</v>
+        <v>203</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="B238" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C238">
-        <v>269</v>
+        <v>206</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="B239" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="C239">
-        <v>271</v>
+        <v>207</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="B240" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="C240">
-        <v>10</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="B241" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="C241">
-        <v>33</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="C242">
-        <v>14</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="C243">
-        <v>166</v>
+        <v>219</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="B244" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C244">
-        <v>5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="B245" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="C245">
-        <v>5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="B246" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="C246">
-        <v>5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>365</v>
+        <v>19</v>
       </c>
       <c r="B247" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="C247">
-        <v>5</v>
+        <v>232</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>366</v>
+        <v>23</v>
       </c>
       <c r="B248" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>233</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="B249" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="C249">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>369</v>
+        <v>24</v>
       </c>
       <c r="B250" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="C250">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>370</v>
+        <v>49</v>
       </c>
       <c r="B251" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="C251">
-        <v>5</v>
+        <v>236</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>371</v>
+        <v>32</v>
       </c>
       <c r="B252" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="C252">
-        <v>5</v>
+        <v>237</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>372</v>
+        <v>28</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c r="C253">
-        <v>9</v>
+        <v>238</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>373</v>
+        <v>212</v>
       </c>
       <c r="B254" t="s">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="C254">
-        <v>11</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>374</v>
+        <v>244</v>
       </c>
       <c r="B255" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="C255">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>375</v>
+        <v>159</v>
       </c>
       <c r="B256" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="C256">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="B257" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="C257">
-        <v>11</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="B258" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C258">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="B259" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C259">
-        <v>11</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>379</v>
+        <v>203</v>
       </c>
       <c r="B260" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="C260">
-        <v>9</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="B261" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C261">
-        <v>11</v>
+        <v>252</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="B262" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="C262">
-        <v>9</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="B263" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C263">
-        <v>11</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>383</v>
+        <v>257</v>
       </c>
       <c r="B264" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C264">
-        <v>9</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>384</v>
+        <v>227</v>
       </c>
       <c r="B265" t="s">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="C265">
-        <v>11</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>385</v>
+        <v>54</v>
       </c>
       <c r="B266" t="s">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="C266">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>386</v>
+        <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c r="C267">
-        <v>9</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="B268" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C268">
-        <v>9</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>388</v>
+        <v>222</v>
       </c>
       <c r="B269" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
       <c r="C269">
-        <v>11</v>
+        <v>260</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>389</v>
+        <v>193</v>
       </c>
       <c r="B270" t="s">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="C270">
-        <v>11</v>
+        <v>261</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="B271" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="C271">
-        <v>9</v>
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>391</v>
+        <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="C272">
-        <v>11</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>392</v>
+        <v>22</v>
       </c>
       <c r="B273" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="C273">
-        <v>9</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="B274" t="s">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c r="C274">
-        <v>11</v>
+        <v>265</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="B275" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="C275">
-        <v>9</v>
+        <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>395</v>
+        <v>194</v>
       </c>
       <c r="B276" t="s">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c r="C276">
-        <v>11</v>
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>396</v>
+        <v>282</v>
       </c>
       <c r="B277" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="C277">
-        <v>9</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="B278" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C278">
-        <v>11</v>
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>398</v>
+        <v>292</v>
       </c>
       <c r="B279" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="C279">
-        <v>9</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="B280" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C280">
-        <v>11</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="B281" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="C281">
-        <v>9</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>401</v>
+        <v>91</v>
       </c>
       <c r="B282" t="s">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="C282">
-        <v>9</v>
+        <v>275</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>402</v>
+        <v>239</v>
       </c>
       <c r="B283" t="s">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="C283">
-        <v>11</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>403</v>
+        <v>275</v>
       </c>
       <c r="B284" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="C284">
-        <v>9</v>
+        <v>277</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="B285" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="C285">
-        <v>11</v>
+        <v>278</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="B286" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="C286">
-        <v>9</v>
+        <v>279</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>406</v>
+        <v>31</v>
       </c>
       <c r="B287" t="s">
-        <v>312</v>
+        <v>31</v>
       </c>
       <c r="C287">
-        <v>11</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>407</v>
+        <v>106</v>
       </c>
       <c r="B288" t="s">
-        <v>313</v>
+        <v>99</v>
       </c>
       <c r="C288">
-        <v>9</v>
+        <v>281</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>408</v>
+        <v>254</v>
       </c>
       <c r="B289" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="C289">
-        <v>11</v>
+        <v>282</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>409</v>
+        <v>226</v>
       </c>
       <c r="B290" t="s">
-        <v>317</v>
+        <v>192</v>
       </c>
       <c r="C290">
-        <v>102</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="B291" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C291">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>411</v>
+        <v>225</v>
       </c>
       <c r="B292" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="C292">
-        <v>194</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1">
     <sortState ref="A2:C292">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:C292">
@@ -19770,8 +19876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B46" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22292,10 +22398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22327,178 +22433,178 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C4" s="1">
-        <v>234</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>106</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="C6" s="1">
-        <v>72</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="C7" s="1">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>424</v>
       </c>
       <c r="C8" s="1">
-        <v>195</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>265</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C11" s="1">
-        <v>306</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="C12" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C13" s="1">
-        <v>162</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>363</v>
       </c>
       <c r="C14" s="1">
-        <v>305</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>412</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="C15" s="1">
-        <v>237</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>465</v>
       </c>
       <c r="C16" s="1">
-        <v>86</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="C17" s="1">
-        <v>51</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -22525,2254 +22631,2254 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
-        <v>62</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>395</v>
       </c>
       <c r="C22" s="1">
-        <v>302</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>411</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C24" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>478</v>
       </c>
       <c r="C25" s="1">
-        <v>163</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>419</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>362</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>269</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>437</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>461</v>
       </c>
       <c r="C29" s="1">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
-        <v>235</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1">
-        <v>158</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>463</v>
       </c>
       <c r="C33" s="1">
-        <v>159</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C35" s="1">
-        <v>301</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="C36" s="1">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>464</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1">
-        <v>304</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>409</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="C39" s="1">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>327</v>
+        <v>452</v>
       </c>
       <c r="C40" s="1">
-        <v>79</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>453</v>
       </c>
       <c r="C41" s="1">
-        <v>13</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1">
-        <v>203</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>453</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1">
-        <v>204</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>367</v>
       </c>
       <c r="C44" s="1">
-        <v>202</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1">
-        <v>95</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="C46" s="1">
-        <v>194</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>367</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1">
-        <v>205</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C49" s="1">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
         <v>71</v>
       </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
       <c r="C51" s="1">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C52" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>431</v>
+        <v>74</v>
       </c>
       <c r="C53" s="1">
-        <v>213</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C54" s="1">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1">
-        <v>243</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C58" s="1">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>363</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
+        <v>432</v>
+      </c>
+      <c r="C59" s="1">
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C60" s="1">
-        <v>232</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="C61" s="1">
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="C62" s="1">
-        <v>303</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
         <v>84</v>
       </c>
-      <c r="B63" t="s">
-        <v>78</v>
-      </c>
       <c r="C63" s="1">
-        <v>29</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="C64" s="1">
-        <v>12</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C65" s="1">
-        <v>217</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
         <v>88</v>
       </c>
-      <c r="B66" t="s">
-        <v>479</v>
-      </c>
       <c r="C66" s="1">
-        <v>74</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="C67" s="1">
-        <v>42</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>96</v>
+      </c>
+      <c r="B68" t="s">
         <v>90</v>
       </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
       <c r="C68" s="1">
-        <v>264</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>447</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>448</v>
       </c>
       <c r="C70" s="1">
-        <v>236</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C71" s="1">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>446</v>
       </c>
       <c r="C72" s="1">
-        <v>192</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>364</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>271</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
+        <v>460</v>
+      </c>
+      <c r="C73" s="1">
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>425</v>
       </c>
       <c r="C74" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C75" s="1">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="C76" s="1">
-        <v>82</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C77" s="1">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="C78" s="1">
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>460</v>
+        <v>102</v>
       </c>
       <c r="C79" s="1">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>366</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>273</v>
-      </c>
-      <c r="C80">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>457</v>
+        <v>107</v>
       </c>
       <c r="C81" s="1">
-        <v>80</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B82" t="s">
-        <v>411</v>
+        <v>108</v>
       </c>
       <c r="C82" s="1">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C83" s="1">
-        <v>214</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="C84" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C85" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C86" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C87" s="1">
-        <v>121</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>412</v>
+        <v>114</v>
       </c>
       <c r="C88" s="1">
-        <v>193</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
-      </c>
-      <c r="C89">
-        <v>5</v>
+        <v>444</v>
+      </c>
+      <c r="C89" s="1">
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C90" s="1">
-        <v>290</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>426</v>
       </c>
       <c r="C91" s="1">
-        <v>241</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C92" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>316</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>440</v>
       </c>
       <c r="C93" s="1">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="C94" s="1">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>398</v>
       </c>
       <c r="C95" s="1">
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>469</v>
       </c>
       <c r="C96" s="1">
-        <v>28</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="C97" s="1">
-        <v>231</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
+        <v>138</v>
+      </c>
+      <c r="B98" t="s">
         <v>125</v>
       </c>
-      <c r="B98" t="s">
-        <v>114</v>
-      </c>
       <c r="C98" s="1">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="C99" s="1">
-        <v>123</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>410</v>
       </c>
       <c r="C100" s="1">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C101" s="1">
-        <v>32</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
+        <v>143</v>
+      </c>
+      <c r="B102" t="s">
         <v>129</v>
       </c>
-      <c r="B102" t="s">
-        <v>118</v>
-      </c>
       <c r="C102" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>440</v>
+        <v>130</v>
       </c>
       <c r="C103" s="1">
-        <v>247</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B104" t="s">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="C104" s="1">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
+        <v>132</v>
       </c>
       <c r="C105" s="1">
-        <v>152</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>469</v>
+        <v>133</v>
       </c>
       <c r="C106" s="1">
-        <v>263</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="C107" s="1">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C108" s="1">
-        <v>260</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>394</v>
+        <v>136</v>
       </c>
       <c r="C109" s="1">
-        <v>278</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C110" s="1">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B111" t="s">
-        <v>441</v>
+        <v>138</v>
       </c>
       <c r="C111" s="1">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C112" s="1">
-        <v>41</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="C113" s="1">
-        <v>14</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C114" s="1">
-        <v>34</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C115" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B116" t="s">
-        <v>433</v>
+        <v>144</v>
       </c>
       <c r="C116" s="1">
-        <v>219</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>458</v>
       </c>
       <c r="C117" s="1">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="C118" s="1">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>429</v>
+        <v>147</v>
       </c>
       <c r="C119" s="1">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C120" s="1">
-        <v>245</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
       <c r="C121" s="1">
-        <v>292</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>418</v>
       </c>
       <c r="C122" s="1">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>427</v>
       </c>
       <c r="C123" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B124" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C124" s="1">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
-        <v>357</v>
+        <v>445</v>
       </c>
       <c r="C125" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="C126" s="1">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C127" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C128" s="1">
-        <v>2</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>418</v>
+        <v>164</v>
       </c>
       <c r="C129" s="1">
-        <v>56</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>427</v>
+        <v>165</v>
       </c>
       <c r="C130" s="1">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>462</v>
+        <v>167</v>
       </c>
       <c r="C131" s="1">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B132" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="C132" s="1">
-        <v>125</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C133" s="1">
-        <v>246</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="C134" s="1">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="C135" s="1">
-        <v>137</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C136" s="1">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>449</v>
       </c>
       <c r="C137" s="1">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B138" t="s">
-        <v>167</v>
+        <v>420</v>
       </c>
       <c r="C138" s="1">
-        <v>135</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B139" t="s">
-        <v>467</v>
+        <v>177</v>
       </c>
       <c r="C139" s="1">
-        <v>308</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="C140" s="1">
-        <v>60</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="C141" s="1">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>369</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
-      </c>
-      <c r="C142">
-        <v>5</v>
+        <v>181</v>
+      </c>
+      <c r="C142" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B143" t="s">
-        <v>173</v>
+        <v>422</v>
       </c>
       <c r="C143" s="1">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="C144" s="1">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>370</v>
+        <v>215</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
-      </c>
-      <c r="C145">
-        <v>5</v>
+        <v>344</v>
+      </c>
+      <c r="C145" s="1">
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B146" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C146" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>472</v>
+        <v>186</v>
       </c>
       <c r="C147" s="1">
-        <v>279</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>413</v>
+        <v>219</v>
       </c>
       <c r="B148" t="s">
-        <v>442</v>
+        <v>187</v>
       </c>
       <c r="C148" s="1">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>473</v>
       </c>
       <c r="C149" s="1">
-        <v>17</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C150" s="1">
-        <v>19</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="B151" t="s">
-        <v>277</v>
-      </c>
-      <c r="C151">
-        <v>5</v>
+        <v>380</v>
+      </c>
+      <c r="C151" s="1">
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="B152" t="s">
-        <v>480</v>
+        <v>195</v>
       </c>
       <c r="C152" s="1">
-        <v>71</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="B153" t="s">
-        <v>481</v>
+        <v>196</v>
       </c>
       <c r="C153" s="1">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="B154" t="s">
-        <v>478</v>
+        <v>197</v>
       </c>
       <c r="C154" s="1">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B155" t="s">
-        <v>422</v>
+        <v>198</v>
       </c>
       <c r="C155" s="1">
-        <v>322</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B156" t="s">
-        <v>456</v>
+        <v>199</v>
       </c>
       <c r="C156" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B157" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C157" s="1">
-        <v>85</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>408</v>
       </c>
       <c r="C158" s="1">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B159" t="s">
-        <v>473</v>
+        <v>203</v>
       </c>
       <c r="C159" s="1">
-        <v>157</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B160" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C160" s="1">
-        <v>262</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="C161" s="1">
-        <v>307</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="B162" t="s">
-        <v>278</v>
-      </c>
-      <c r="C162">
-        <v>9</v>
+        <v>207</v>
+      </c>
+      <c r="C162" s="1">
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="B163" t="s">
-        <v>279</v>
-      </c>
-      <c r="C163">
-        <v>11</v>
+        <v>208</v>
+      </c>
+      <c r="C163" s="1">
+        <v>240</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>374</v>
+        <v>247</v>
       </c>
       <c r="B164" t="s">
-        <v>280</v>
-      </c>
-      <c r="C164">
-        <v>9</v>
+        <v>210</v>
+      </c>
+      <c r="C164" s="1">
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="B165" t="s">
-        <v>281</v>
-      </c>
-      <c r="C165">
-        <v>9</v>
+        <v>213</v>
+      </c>
+      <c r="C165" s="1">
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="B166" t="s">
-        <v>282</v>
-      </c>
-      <c r="C166">
-        <v>11</v>
+        <v>214</v>
+      </c>
+      <c r="C166" s="1">
+        <v>242</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="C167" s="1">
-        <v>291</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>377</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
-        <v>283</v>
-      </c>
-      <c r="C168">
-        <v>9</v>
+        <v>218</v>
+      </c>
+      <c r="C168" s="1">
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>378</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
-        <v>284</v>
-      </c>
-      <c r="C169">
-        <v>11</v>
+        <v>219</v>
+      </c>
+      <c r="C169" s="1">
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>379</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
-        <v>285</v>
-      </c>
-      <c r="C170">
-        <v>9</v>
+        <v>455</v>
+      </c>
+      <c r="C170" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
-        <v>286</v>
-      </c>
-      <c r="C171">
-        <v>11</v>
+        <v>221</v>
+      </c>
+      <c r="C171" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>392</v>
       </c>
       <c r="C172" s="1">
-        <v>218</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C173" s="1">
-        <v>46</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C174" s="1">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="C175" s="1">
-        <v>38</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C176" s="1">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="C177" s="1">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B178" t="s">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="C178" s="1">
-        <v>171</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
-        <v>203</v>
+        <v>382</v>
       </c>
       <c r="C179" s="1">
-        <v>10</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="C180" s="1">
-        <v>267</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B181" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C181" s="1">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B182" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="C182" s="1">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="B183" t="s">
-        <v>287</v>
-      </c>
-      <c r="C183">
-        <v>9</v>
+        <v>416</v>
+      </c>
+      <c r="C183" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
-        <v>288</v>
-      </c>
-      <c r="C184">
-        <v>11</v>
+        <v>430</v>
+      </c>
+      <c r="C184" s="1">
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="C185" s="1">
-        <v>321</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="B186" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C186" s="1">
-        <v>240</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="B187" t="s">
-        <v>210</v>
+        <v>414</v>
       </c>
       <c r="C187" s="1">
-        <v>293</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="B188" t="s">
-        <v>213</v>
+        <v>415</v>
       </c>
       <c r="C188" s="1">
-        <v>175</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B189" t="s">
-        <v>289</v>
-      </c>
-      <c r="C189">
-        <v>9</v>
+        <v>247</v>
+      </c>
+      <c r="C189" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="B190" t="s">
-        <v>290</v>
-      </c>
-      <c r="C190">
-        <v>11</v>
+        <v>248</v>
+      </c>
+      <c r="C190" s="1">
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="B191" t="s">
-        <v>214</v>
+        <v>412</v>
       </c>
       <c r="C191" s="1">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="B192" t="s">
-        <v>291</v>
-      </c>
-      <c r="C192">
-        <v>11</v>
+        <v>250</v>
+      </c>
+      <c r="C192" s="1">
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B193" t="s">
-        <v>217</v>
+        <v>423</v>
       </c>
       <c r="C193" s="1">
-        <v>156</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="B194" t="s">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c r="C194" s="1">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="B195" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="C195" s="1">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="B196" t="s">
-        <v>455</v>
+        <v>253</v>
       </c>
       <c r="C196" s="1">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>386</v>
+        <v>307</v>
       </c>
       <c r="B197" t="s">
-        <v>292</v>
-      </c>
-      <c r="C197">
-        <v>9</v>
+        <v>255</v>
+      </c>
+      <c r="C197" s="1">
+        <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C198" s="1">
-        <v>22</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>257</v>
       </c>
       <c r="C199" s="1">
-        <v>270</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="C200" s="1">
-        <v>154</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
-        <v>435</v>
+        <v>259</v>
       </c>
       <c r="C201" s="1">
-        <v>233</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B202" t="s">
-        <v>225</v>
+        <v>454</v>
       </c>
       <c r="C202" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="B203" t="s">
-        <v>293</v>
-      </c>
-      <c r="C203">
-        <v>9</v>
+        <v>261</v>
+      </c>
+      <c r="C203" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="B204" t="s">
-        <v>294</v>
-      </c>
-      <c r="C204">
-        <v>11</v>
+        <v>262</v>
+      </c>
+      <c r="C204" s="1">
+        <v>276</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>2</v>
+        <v>316</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="C205" s="1">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>5</v>
+        <v>318</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="C206" s="1">
-        <v>174</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="B207" t="s">
-        <v>226</v>
+        <v>480</v>
       </c>
       <c r="C207" s="1">
-        <v>178</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="B208" t="s">
-        <v>380</v>
+        <v>481</v>
       </c>
       <c r="C208" s="1">
-        <v>191</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="B209" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="C209">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="B210" t="s">
-        <v>227</v>
-      </c>
-      <c r="C210" s="1">
-        <v>23</v>
+        <v>270</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>148</v>
+        <v>364</v>
       </c>
       <c r="B211" t="s">
-        <v>132</v>
-      </c>
-      <c r="C211" s="1">
-        <v>84</v>
+        <v>271</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B212" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C212">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C213">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="B214" t="s">
-        <v>344</v>
-      </c>
-      <c r="C214" s="1">
-        <v>309</v>
+        <v>274</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="B215" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C216">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="B217" t="s">
-        <v>229</v>
-      </c>
-      <c r="C217" s="1">
-        <v>155</v>
+        <v>277</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="B218" t="s">
-        <v>231</v>
-      </c>
-      <c r="C218" s="1">
-        <v>61</v>
+        <v>278</v>
+      </c>
+      <c r="C218">
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B219" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C219">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="B220" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C220">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c r="B221" t="s">
-        <v>382</v>
-      </c>
-      <c r="C221" s="1">
-        <v>201</v>
+        <v>281</v>
+      </c>
+      <c r="C221">
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B222" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C222">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B223" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C223">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>278</v>
+        <v>378</v>
       </c>
       <c r="B224" t="s">
-        <v>233</v>
-      </c>
-      <c r="C224" s="1">
-        <v>104</v>
+        <v>284</v>
+      </c>
+      <c r="C224">
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="B225" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C225">
         <v>9</v>
@@ -24780,10 +24886,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B226" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C226">
         <v>11</v>
@@ -24791,10 +24897,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="B227" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C227">
         <v>9</v>
@@ -24802,65 +24908,65 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="B228" t="s">
-        <v>235</v>
-      </c>
-      <c r="C228" s="1">
-        <v>105</v>
+        <v>288</v>
+      </c>
+      <c r="C228">
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="B229" t="s">
-        <v>236</v>
-      </c>
-      <c r="C229" s="1">
-        <v>18</v>
+        <v>289</v>
+      </c>
+      <c r="C229">
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="B230" t="s">
-        <v>395</v>
-      </c>
-      <c r="C230" s="1">
-        <v>103</v>
+        <v>290</v>
+      </c>
+      <c r="C230">
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>285</v>
+        <v>385</v>
       </c>
       <c r="B231" t="s">
-        <v>430</v>
-      </c>
-      <c r="C231" s="1">
-        <v>212</v>
+        <v>291</v>
+      </c>
+      <c r="C231">
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>286</v>
+        <v>386</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
-      </c>
-      <c r="C232" s="1">
-        <v>108</v>
+        <v>292</v>
+      </c>
+      <c r="C232">
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B233" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C233">
         <v>9</v>
@@ -24868,10 +24974,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B234" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C234">
         <v>11</v>
@@ -24879,272 +24985,294 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B235" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C235">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B236" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C236">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B237" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C237">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B238" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C238">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>289</v>
+        <v>393</v>
       </c>
       <c r="B239" t="s">
-        <v>243</v>
-      </c>
-      <c r="C239" s="1">
-        <v>177</v>
+        <v>299</v>
+      </c>
+      <c r="C239">
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>293</v>
+        <v>394</v>
       </c>
       <c r="B240" t="s">
-        <v>247</v>
-      </c>
-      <c r="C240" s="1">
-        <v>87</v>
+        <v>300</v>
+      </c>
+      <c r="C240">
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
-      </c>
-      <c r="C241" s="1">
-        <v>269</v>
+        <v>301</v>
+      </c>
+      <c r="C241">
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="B242" t="s">
-        <v>174</v>
-      </c>
-      <c r="C242" s="1">
-        <v>109</v>
+        <v>302</v>
+      </c>
+      <c r="C242">
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="B243" t="s">
-        <v>250</v>
-      </c>
-      <c r="C243" s="1">
-        <v>150</v>
+        <v>303</v>
+      </c>
+      <c r="C243">
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="B244" t="s">
-        <v>423</v>
-      </c>
-      <c r="C244" s="1">
-        <v>324</v>
+        <v>304</v>
+      </c>
+      <c r="C244">
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B245" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C245">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B246" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C246">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="B247" t="s">
-        <v>252</v>
-      </c>
-      <c r="C247" s="1">
-        <v>249</v>
+        <v>307</v>
+      </c>
+      <c r="C247">
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>159</v>
+        <v>402</v>
       </c>
       <c r="B248" t="s">
-        <v>375</v>
-      </c>
-      <c r="C248" s="1">
-        <v>320</v>
+        <v>308</v>
+      </c>
+      <c r="C248">
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
-      </c>
-      <c r="C249" s="1">
-        <v>151</v>
+        <v>309</v>
+      </c>
+      <c r="C249">
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
-      </c>
-      <c r="C250" s="1">
-        <v>273</v>
+        <v>310</v>
+      </c>
+      <c r="C250">
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
-      </c>
-      <c r="C251" s="1">
-        <v>323</v>
+        <v>311</v>
+      </c>
+      <c r="C251">
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>310</v>
+        <v>406</v>
       </c>
       <c r="B252" t="s">
-        <v>257</v>
-      </c>
-      <c r="C252" s="1">
-        <v>138</v>
+        <v>312</v>
+      </c>
+      <c r="C252">
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>311</v>
+        <v>407</v>
       </c>
       <c r="B253" t="s">
-        <v>389</v>
-      </c>
-      <c r="C253" s="1">
-        <v>268</v>
+        <v>313</v>
+      </c>
+      <c r="C253">
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="B254" t="s">
-        <v>259</v>
-      </c>
-      <c r="C254" s="1">
-        <v>8</v>
+        <v>314</v>
+      </c>
+      <c r="C254">
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>313</v>
+        <v>409</v>
       </c>
       <c r="B255" t="s">
-        <v>454</v>
+        <v>317</v>
       </c>
       <c r="C255" s="1">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="C256" s="1">
-        <v>4</v>
+        <v>161</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>315</v>
+        <v>412</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>438</v>
       </c>
       <c r="C257" s="1">
-        <v>276</v>
+        <v>237</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>87</v>
+        <v>413</v>
       </c>
       <c r="B258" t="s">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="C258" s="1">
-        <v>107</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>414</v>
+      </c>
+      <c r="B259" t="s">
+        <v>774</v>
+      </c>
+      <c r="C259" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>415</v>
+      </c>
+      <c r="B260" t="s">
+        <v>775</v>
+      </c>
+      <c r="C260" s="1">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1">
-    <sortState ref="A2:C258">
-      <sortCondition ref="B1"/>
+    <sortState ref="A2:C260">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -2967,9 +2967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J341" sqref="J341"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="837">
   <si>
     <t>KTCh</t>
   </si>
@@ -2616,11 +2616,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOCAL</t>
+    <t>MBC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOCAL</t>
+    <t>MIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2967,9 +2971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L341"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J341" sqref="J341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4991,10 +4995,10 @@
         <v>536</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>798</v>
       </c>
       <c r="K46">
-        <v>257</v>
+        <v>815529</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -17327,7 +17331,7 @@
         <v>831</v>
       </c>
       <c r="J340" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K340">
         <v>3</v>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -27,6 +27,7 @@
     <definedName name="EPGTable">Source!$A:$L</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="840">
   <si>
     <t>KTCh</t>
   </si>
@@ -2625,6 +2626,18 @@
   </si>
   <si>
     <t>IFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAVER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2632,7 +2645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2655,6 +2668,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2679,7 +2699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2688,6 +2708,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2971,9 +2997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J341" sqref="J341"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7855,10 +7881,10 @@
         <v>601</v>
       </c>
       <c r="J111" t="s">
-        <v>34</v>
+        <v>838</v>
       </c>
       <c r="K111">
-        <v>658</v>
+        <v>5286722</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -13047,12 +13073,12 @@
         <v>721</v>
       </c>
       <c r="J229" t="s">
-        <v>34</v>
-      </c>
-      <c r="K229">
-        <v>627</v>
-      </c>
-      <c r="L229">
+        <v>839</v>
+      </c>
+      <c r="K229" s="3">
+        <v>5286712</v>
+      </c>
+      <c r="L229" s="4">
         <v>1</v>
       </c>
     </row>
@@ -16970,10 +16996,10 @@
         <v>818</v>
       </c>
       <c r="J322" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="K322">
-        <v>815447</v>
+        <v>1</v>
       </c>
       <c r="L322">
         <v>0</v>
@@ -17314,7 +17340,7 @@
         <v>835</v>
       </c>
       <c r="K339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L339">
         <v>0</v>
@@ -17334,7 +17360,7 @@
         <v>836</v>
       </c>
       <c r="K340">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L340">
         <v>0</v>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -27,7 +27,6 @@
     <definedName name="EPGTable">Source!$A:$L</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="842">
   <si>
     <t>KTCh</t>
   </si>
@@ -2639,6 +2638,13 @@
   <si>
     <t>NAVER</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.imgur.com/tg99cob.png</t>
   </si>
 </sst>
 </file>
@@ -2995,11 +3001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L341"/>
+  <dimension ref="A1:L342"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L342" sqref="L342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17408,6 +17414,26 @@
       </c>
       <c r="L341">
         <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>443</v>
+      </c>
+      <c r="B342" t="s">
+        <v>840</v>
+      </c>
+      <c r="I342" t="s">
+        <v>841</v>
+      </c>
+      <c r="J342" t="s">
+        <v>798</v>
+      </c>
+      <c r="K342">
+        <v>814777</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lum34\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\epg2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="844">
   <si>
     <t>KTCh</t>
   </si>
@@ -2645,6 +2645,12 @@
   </si>
   <si>
     <t>http://i.imgur.com/tg99cob.png</t>
+  </si>
+  <si>
+    <t>채널W</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/mtiKEkU.png</t>
   </si>
 </sst>
 </file>
@@ -3001,11 +3007,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L342"/>
+  <dimension ref="A1:L343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L342" sqref="L342"/>
+      <selection pane="bottomLeft" activeCell="L344" sqref="L344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17433,6 +17439,26 @@
         <v>814777</v>
       </c>
       <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>444</v>
+      </c>
+      <c r="B343" t="s">
+        <v>842</v>
+      </c>
+      <c r="I343" t="s">
+        <v>843</v>
+      </c>
+      <c r="J343" t="s">
+        <v>9</v>
+      </c>
+      <c r="K343">
+        <v>518</v>
+      </c>
+      <c r="L343">
         <v>0</v>
       </c>
     </row>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13890"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="909">
   <si>
     <t>KTCh</t>
   </si>
@@ -2905,6 +2905,17 @@
   <si>
     <t>SK</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.imgur.com/0NsDeMa.png</t>
   </si>
 </sst>
 </file>
@@ -3261,11 +3272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L343"/>
+  <dimension ref="A1:L344"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L345" sqref="L345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17764,6 +17775,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>448</v>
+      </c>
+      <c r="B344" t="s">
+        <v>907</v>
+      </c>
+      <c r="C344" t="str">
+        <f>IF(ISNA(VLOOKUP($A344,KT!$A:$B,2,FALSE)),"",VLOOKUP($A344,KT!$A:$B,2,FALSE))</f>
+        <v>GCN</v>
+      </c>
+      <c r="D344">
+        <f>IF(ISNA(VLOOKUP($A344,KT!$A:$C,3,FALSE)),"",VLOOKUP($A344,KT!$A:$C,3,FALSE))</f>
+        <v>882</v>
+      </c>
+      <c r="E344" t="str">
+        <f>IF(ISNA(VLOOKUP($A344,LG!$A:$B,2,FALSE)),"",VLOOKUP($A344,LG!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F344" t="str">
+        <f>IF(ISNA(VLOOKUP($A344,LG!$A:$C,3,FALSE)),"",VLOOKUP($A344,LG!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G344" t="str">
+        <f>IF(ISNA(VLOOKUP($A344,SK!$A:$B,2,FALSE)),"",VLOOKUP($A344,SK!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H344" t="str">
+        <f>IF(ISNA(VLOOKUP($A344,SK!$A:$C,3,FALSE)),"",VLOOKUP($A344,SK!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I344" t="s">
+        <v>908</v>
+      </c>
+      <c r="J344" t="s">
+        <v>906</v>
+      </c>
+      <c r="K344">
+        <v>652</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L342">
     <sortState ref="A2:L344">
@@ -17778,10 +17833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:B65"/>
+    <sheetView topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="C290" sqref="C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20955,6 +21010,17 @@
       </c>
       <c r="C288">
         <v>264</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>448</v>
+      </c>
+      <c r="B289" t="s">
+        <v>907</v>
+      </c>
+      <c r="C289">
+        <v>882</v>
       </c>
     </row>
   </sheetData>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="910">
   <si>
     <t>KTCh</t>
   </si>
@@ -2916,6 +2916,10 @@
   </si>
   <si>
     <t>http://i.imgur.com/0NsDeMa.png</t>
+  </si>
+  <si>
+    <t>키즈톡톡 플러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3274,9 +3278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L345" sqref="L345"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7398,13 +7402,11 @@
         <f>IF(ISNA(VLOOKUP($A94,LG!$A:$C,3,FALSE)),"",VLOOKUP($A94,LG!$A:$C,3,FALSE))</f>
         <v>158</v>
       </c>
-      <c r="G94" t="str">
-        <f>IF(ISNA(VLOOKUP($A94,SK!$A:$B,2,FALSE)),"",VLOOKUP($A94,SK!$A:$B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H94" t="str">
-        <f>IF(ISNA(VLOOKUP($A94,SK!$A:$C,3,FALSE)),"",VLOOKUP($A94,SK!$A:$C,3,FALSE))</f>
-        <v/>
+      <c r="G94" t="s">
+        <v>909</v>
+      </c>
+      <c r="H94">
+        <v>189</v>
       </c>
       <c r="I94" t="s">
         <v>567</v>
@@ -23585,10 +23587,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C272"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26575,6 +26577,17 @@
       </c>
       <c r="C271" s="1">
         <v>139</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>112</v>
+      </c>
+      <c r="B272" t="s">
+        <v>101</v>
+      </c>
+      <c r="C272" s="1">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="924">
   <si>
     <t>KTCh</t>
   </si>
@@ -3336,8 +3336,8 @@
   <dimension ref="A1:L344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11287,11 +11287,11 @@
       </c>
       <c r="G181" t="str">
         <f>IF(ISNA(VLOOKUP($A181,SK!$A:$B,2,FALSE)),"",VLOOKUP($A181,SK!$A:$B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="H181" t="str">
+        <v>내외경제TV</v>
+      </c>
+      <c r="H181">
         <f>IF(ISNA(VLOOKUP($A181,SK!$A:$C,3,FALSE)),"",VLOOKUP($A181,SK!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>164</v>
       </c>
       <c r="I181" t="s">
         <v>654</v>
@@ -23644,10 +23644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C272"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26645,6 +26645,17 @@
       </c>
       <c r="C272" s="1">
         <v>189</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>225</v>
+      </c>
+      <c r="B273" t="s">
+        <v>185</v>
+      </c>
+      <c r="C273" s="1">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
